--- a/docs/开场数据字典.xlsx
+++ b/docs/开场数据字典.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179">
   <si>
     <t>开场数据字典</t>
   </si>
@@ -47,7 +47,7 @@
     <t>主键、自增、无符号、非空</t>
   </si>
   <si>
-    <t>username</t>
+    <t>userName</t>
   </si>
   <si>
     <t>用户名</t>
@@ -68,6 +68,12 @@
     <t>非空</t>
   </si>
   <si>
+    <t>eamil</t>
+  </si>
+  <si>
+    <t>邮箱</t>
+  </si>
+  <si>
     <t>phone</t>
   </si>
   <si>
@@ -83,7 +89,13 @@
     <t>tinyint</t>
   </si>
   <si>
-    <t xml:space="preserve">0 普通用户；1：普通管理员；2 超级管理员 </t>
+    <t xml:space="preserve">0 普通用户；1 商户；2 普通管理员；3 超级管理员 </t>
+  </si>
+  <si>
+    <t>rememberToken</t>
+  </si>
+  <si>
+    <t>记住我</t>
   </si>
   <si>
     <t>status</t>
@@ -92,7 +104,7 @@
     <t>状态</t>
   </si>
   <si>
-    <t>0：禁用；1：启用</t>
+    <t>0：禁用；1：正常；默认：正常；</t>
   </si>
   <si>
     <t>created_at</t>
@@ -101,7 +113,7 @@
     <t>创建时间</t>
   </si>
   <si>
-    <t>lasttime</t>
+    <t>lastTime</t>
   </si>
   <si>
     <t>最后登录时间</t>
@@ -125,10 +137,10 @@
     <t>姓名</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>邮箱</t>
+    <t>photo</t>
+  </si>
+  <si>
+    <t>头像</t>
   </si>
   <si>
     <t>team</t>
@@ -387,6 +399,12 @@
     <t>加盟商表 (shopKeepers)</t>
   </si>
   <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>0：禁用；1：启用</t>
+  </si>
+  <si>
     <t>加盟商详情表(shopDetails)</t>
   </si>
   <si>
@@ -632,10 +650,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -680,6 +698,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -687,24 +713,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -731,63 +758,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -802,6 +774,21 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -810,8 +797,39 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -862,36 +880,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -922,7 +910,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -935,30 +929,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -989,6 +959,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1034,6 +1028,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="25">
     <border>
@@ -1279,6 +1297,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1316,30 +1349,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1365,6 +1374,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1373,10 +1391,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1385,133 +1403,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1697,7 +1715,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="表2_3456891018" displayName="表2_3456891018" ref="A83:D85" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="表2_3456891018" displayName="表2_3456891018" ref="A85:D87" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" name="字段名"/>
     <tableColumn id="2" name="说明"/>
@@ -1709,7 +1727,7 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="表2_34568919" displayName="表2_34568919" ref="A91:D93" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="表2_34568919" displayName="表2_34568919" ref="A93:D95" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" name="字段名"/>
     <tableColumn id="2" name="说明"/>
@@ -1721,7 +1739,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表2_34" displayName="表2_34" ref="A114:D116" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表2_34" displayName="表2_34" ref="A116:D118" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" name="字段名"/>
     <tableColumn id="2" name="说明"/>
@@ -1733,7 +1751,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表2_3456" displayName="表2_3456" ref="A127:D129" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表2_3456" displayName="表2_3456" ref="A129:D131" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" name="字段名"/>
     <tableColumn id="2" name="说明"/>
@@ -1745,7 +1763,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="表2_3456891011" displayName="表2_3456891011" ref="A140:D141" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="表2_3456891011" displayName="表2_3456891011" ref="A142:D143" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" name="字段名"/>
     <tableColumn id="2" name="说明"/>
@@ -1757,7 +1775,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="表2_345689101112" displayName="表2_345689101112" ref="A149:D151" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="表2_345689101112" displayName="表2_345689101112" ref="A151:D153" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" name="字段名"/>
     <tableColumn id="2" name="说明"/>
@@ -1769,7 +1787,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="表2_34514" displayName="表2_34514" ref="A42:D44" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="表2_34514" displayName="表2_34514" ref="A44:D46" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" name="字段名"/>
     <tableColumn id="2" name="说明"/>
@@ -1781,7 +1799,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="表2_3451415" displayName="表2_3451415" ref="A51:D53" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="表2_3451415" displayName="表2_3451415" ref="A53:D55" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" name="字段名"/>
     <tableColumn id="2" name="说明"/>
@@ -1793,7 +1811,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="表2_345141516" displayName="表2_345141516" ref="A63:D65" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="表2_345141516" displayName="表2_345141516" ref="A65:D67" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" name="字段名"/>
     <tableColumn id="2" name="说明"/>
@@ -1805,7 +1823,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="表2_3451417" displayName="表2_3451417" ref="A75:D77" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="表2_3451417" displayName="表2_3451417" ref="A77:D79" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" name="字段名"/>
     <tableColumn id="2" name="说明"/>
@@ -2075,10 +2093,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I197"/>
+  <dimension ref="A1:I199"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G173" sqref="G173"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2165,56 +2183,56 @@
       </c>
     </row>
     <row r="9" ht="30" customHeight="1" spans="1:4">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="16" t="s">
+      <c r="C9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" ht="30" customHeight="1" spans="1:4">
+      <c r="A10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" ht="30" customHeight="1" spans="1:4">
-      <c r="A10" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="15" t="s">
+    <row r="11" ht="30" customHeight="1" spans="1:4">
+      <c r="A11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="B11" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" ht="30" customHeight="1" spans="1:4">
-      <c r="A11" s="12" t="s">
+      <c r="C11" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="D11" s="15" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="12" ht="30" customHeight="1" spans="1:4">
       <c r="A12" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>27</v>
-      </c>
       <c r="C12" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>16</v>
@@ -2222,99 +2240,98 @@
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:4">
       <c r="A13" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="C13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="16" t="s">
+    </row>
+    <row r="14" ht="30" customHeight="1" spans="1:4">
+      <c r="A14" s="14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" ht="14.25"/>
-    <row r="16" ht="30" customHeight="1" spans="1:4">
-      <c r="A16" s="17" t="s">
+      <c r="B14" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="C14" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" ht="30" customHeight="1" spans="1:4">
+      <c r="A15" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="19"/>
-    </row>
-    <row r="17" ht="30" customHeight="1" spans="1:4">
-      <c r="A17" s="10" t="s">
+      <c r="B15" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25"/>
+    <row r="18" ht="30" customHeight="1" spans="1:4">
+      <c r="A18" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="19"/>
+    </row>
+    <row r="19" ht="30" customHeight="1" spans="1:4">
+      <c r="A19" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B19" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C19" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D19" s="11" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="18" ht="30" customHeight="1" spans="1:4">
-      <c r="A18" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" ht="30" customHeight="1" spans="1:4">
-      <c r="A19" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="20" ht="30" customHeight="1" spans="1:4">
       <c r="A20" s="12" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" ht="30" customHeight="1" spans="1:9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" ht="30" customHeight="1" spans="1:4">
       <c r="A21" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="23"/>
     </row>
     <row r="22" ht="30" customHeight="1" spans="1:4">
       <c r="A22" s="12" t="s">
@@ -2330,7 +2347,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" ht="30" customHeight="1" spans="1:4">
+    <row r="23" ht="30" customHeight="1" spans="1:9">
       <c r="A23" s="14" t="s">
         <v>40</v>
       </c>
@@ -2341,115 +2358,116 @@
         <v>12</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>42</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="I23" s="23"/>
     </row>
     <row r="24" ht="30" customHeight="1" spans="1:4">
       <c r="A24" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>44</v>
-      </c>
       <c r="C24" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="30" customHeight="1" spans="1:4">
       <c r="A25" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="C25" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" ht="15" spans="8:8">
-      <c r="H27" s="12"/>
-    </row>
-    <row r="28" ht="30" customHeight="1" spans="1:4">
-      <c r="A28" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="5" t="s">
+    </row>
+    <row r="26" ht="30" customHeight="1" spans="1:4">
+      <c r="A26" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="7"/>
-    </row>
-    <row r="29" ht="30" customHeight="1" spans="1:4">
-      <c r="A29" s="10" t="s">
+      <c r="B26" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" ht="30" customHeight="1" spans="1:4">
+      <c r="A27" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" ht="15" spans="8:8">
+      <c r="H29" s="12"/>
+    </row>
+    <row r="30" ht="30" customHeight="1" spans="1:4">
+      <c r="A30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" ht="30" customHeight="1" spans="1:4">
+      <c r="A31" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B31" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C31" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D31" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="30" ht="30" customHeight="1" spans="1:4">
-      <c r="A30" s="12" t="s">
+    <row r="32" ht="30" customHeight="1" spans="1:4">
+      <c r="A32" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="13" t="s">
+      <c r="B32" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="13" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="31" ht="30" customHeight="1" spans="1:4">
-      <c r="A31" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" ht="30" customHeight="1" spans="1:4">
-      <c r="A32" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="33" ht="30" customHeight="1" spans="1:4">
       <c r="A33" s="14" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D33" s="15" t="s">
         <v>13</v>
@@ -2457,255 +2475,255 @@
     </row>
     <row r="34" ht="30" customHeight="1" spans="1:4">
       <c r="A34" s="13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="30" customHeight="1" spans="1:4">
       <c r="A35" s="14" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" ht="30" customHeight="1" spans="1:4">
       <c r="A36" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="C36" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="13" t="s">
         <v>46</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="37" ht="30" customHeight="1" spans="1:4">
       <c r="A37" s="14" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" ht="30" customHeight="1" spans="1:4">
       <c r="A38" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1"/>
-    <row r="40" ht="14.25"/>
-    <row r="41" ht="30" customHeight="1" spans="1:4">
-      <c r="A41" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" ht="30" customHeight="1" spans="1:4">
+      <c r="A39" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="20"/>
-    </row>
-    <row r="42" ht="30" customHeight="1" spans="1:4">
-      <c r="A42" s="10" t="s">
+      <c r="C39" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" ht="30" customHeight="1" spans="1:4">
+      <c r="A40" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1"/>
+    <row r="42" ht="14.25"/>
+    <row r="43" ht="30" customHeight="1" spans="1:4">
+      <c r="A43" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="20"/>
+    </row>
+    <row r="44" ht="30" customHeight="1" spans="1:4">
+      <c r="A44" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B44" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C44" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="21" t="s">
+      <c r="D44" s="21" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="43" ht="30" customHeight="1" spans="1:4">
-      <c r="A43" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" ht="30" customHeight="1" spans="1:4">
-      <c r="A44" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="45" ht="30" customHeight="1" spans="1:4">
       <c r="A45" s="13" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" ht="30" customHeight="1" spans="1:4">
-      <c r="A46" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" ht="30" customHeight="1" spans="1:7">
+      <c r="A46" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" ht="30" customHeight="1" spans="1:4">
       <c r="A47" s="13" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="D47" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" ht="30" customHeight="1" spans="1:4">
+      <c r="A48" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="G47" s="15"/>
-    </row>
-    <row r="49" ht="14.25"/>
-    <row r="50" ht="30" customHeight="1" spans="1:4">
-      <c r="A50" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B50" s="5" t="s">
+      <c r="B48" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="20"/>
-    </row>
-    <row r="51" ht="30" customHeight="1" spans="1:4">
-      <c r="A51" s="10" t="s">
+      <c r="C48" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" ht="30" customHeight="1" spans="1:7">
+      <c r="A49" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G49" s="15"/>
+    </row>
+    <row r="51" ht="14.25"/>
+    <row r="52" ht="30" customHeight="1" spans="1:4">
+      <c r="A52" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="6"/>
+      <c r="D52" s="20"/>
+    </row>
+    <row r="53" ht="30" customHeight="1" spans="1:4">
+      <c r="A53" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B53" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C53" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D51" s="21" t="s">
+      <c r="D53" s="21" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="52" ht="30" customHeight="1" spans="1:4">
-      <c r="A52" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" ht="30" customHeight="1" spans="1:4">
-      <c r="A53" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="54" ht="30" customHeight="1" spans="1:4">
       <c r="A54" s="13" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" ht="30" customHeight="1" spans="1:4">
-      <c r="A55" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B55" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="15" t="s">
+      <c r="A55" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="56" ht="30" customHeight="1" spans="1:4">
       <c r="A56" s="13" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="B56" s="13" t="s">
         <v>69</v>
@@ -2718,30 +2736,30 @@
       </c>
     </row>
     <row r="57" ht="30" customHeight="1" spans="1:4">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C57" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="13" t="s">
+      <c r="C57" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="58" ht="30" customHeight="1" spans="1:4">
-      <c r="A58" s="14" t="s">
+      <c r="A58" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B58" s="15" t="s">
+      <c r="B58" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C58" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" s="15" t="s">
+      <c r="C58" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="13" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2759,101 +2777,101 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" customHeight="1" spans="1:4">
-      <c r="A60" s="22"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
-    </row>
-    <row r="61" customHeight="1" spans="1:4">
-      <c r="A61" s="22"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
-    </row>
-    <row r="62" ht="30" customHeight="1" spans="1:4">
-      <c r="A62" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B62" s="5" t="s">
+    <row r="60" ht="30" customHeight="1" spans="1:4">
+      <c r="A60" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="20"/>
-    </row>
-    <row r="63" ht="30" customHeight="1" spans="1:4">
-      <c r="A63" s="10" t="s">
+      <c r="B60" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" ht="30" customHeight="1" spans="1:4">
+      <c r="A61" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="1:4">
+      <c r="A62" s="22"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+    </row>
+    <row r="63" customHeight="1" spans="1:4">
+      <c r="A63" s="22"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+    </row>
+    <row r="64" ht="30" customHeight="1" spans="1:4">
+      <c r="A64" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C64" s="6"/>
+      <c r="D64" s="20"/>
+    </row>
+    <row r="65" ht="30" customHeight="1" spans="1:4">
+      <c r="A65" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="B65" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C65" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D63" s="21" t="s">
+      <c r="D65" s="21" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="64" ht="30" customHeight="1" spans="1:4">
-      <c r="A64" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B64" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" ht="30" customHeight="1" spans="1:4">
-      <c r="A65" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B65" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C65" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D65" s="13" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="66" ht="30" customHeight="1" spans="1:4">
       <c r="A66" s="13" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" ht="30" customHeight="1" spans="1:4">
-      <c r="A67" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="B67" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C67" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67" s="15" t="s">
+      <c r="A67" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="68" ht="30" customHeight="1" spans="1:4">
       <c r="A68" s="13" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="B68" s="13" t="s">
         <v>81</v>
@@ -2866,39 +2884,39 @@
       </c>
     </row>
     <row r="69" ht="30" customHeight="1" spans="1:4">
-      <c r="A69" s="13" t="s">
+      <c r="A69" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="B69" s="13" t="s">
+      <c r="B69" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C69" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D69" s="13" t="s">
+      <c r="C69" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="70" ht="30" customHeight="1" spans="1:4">
-      <c r="A70" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B70" s="15" t="s">
+      <c r="A70" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C70" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D70" s="15" t="s">
+      <c r="B70" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="71" ht="30" customHeight="1" spans="1:4">
       <c r="A71" s="13" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C71" s="13" t="s">
         <v>12</v>
@@ -2907,274 +2925,274 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" ht="14.25"/>
-    <row r="74" ht="30" customHeight="1" spans="1:4">
-      <c r="A74" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C74" s="6"/>
-      <c r="D74" s="20"/>
-    </row>
-    <row r="75" ht="30" customHeight="1" spans="1:4">
-      <c r="A75" s="10" t="s">
+    <row r="72" ht="30" customHeight="1" spans="1:4">
+      <c r="A72" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" ht="30" customHeight="1" spans="1:4">
+      <c r="A73" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" ht="14.25"/>
+    <row r="76" ht="30" customHeight="1" spans="1:4">
+      <c r="A76" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C76" s="6"/>
+      <c r="D76" s="20"/>
+    </row>
+    <row r="77" ht="30" customHeight="1" spans="1:4">
+      <c r="A77" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B75" s="11" t="s">
+      <c r="B77" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C75" s="11" t="s">
+      <c r="C77" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D75" s="21" t="s">
+      <c r="D77" s="21" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="76" ht="30" customHeight="1" spans="1:4">
-      <c r="A76" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B76" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C76" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D76" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="77" ht="30" customHeight="1" spans="1:4">
-      <c r="A77" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B77" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C77" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D77" s="13" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="78" ht="30" customHeight="1" spans="1:4">
       <c r="A78" s="13" t="s">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C78" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C78" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" ht="30" customHeight="1" spans="1:4">
-      <c r="A79" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B79" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C79" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D79" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="81" ht="14.25"/>
-    <row r="82" ht="30" customHeight="1" spans="1:4">
-      <c r="A82" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C82" s="6"/>
-      <c r="D82" s="20"/>
-    </row>
-    <row r="83" ht="30" customHeight="1" spans="1:4">
-      <c r="A83" s="10" t="s">
+      <c r="A79" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" ht="30" customHeight="1" spans="1:4">
+      <c r="A80" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" ht="30" customHeight="1" spans="1:4">
+      <c r="A81" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" ht="14.25"/>
+    <row r="84" ht="30" customHeight="1" spans="1:4">
+      <c r="A84" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C84" s="6"/>
+      <c r="D84" s="20"/>
+    </row>
+    <row r="85" ht="30" customHeight="1" spans="1:4">
+      <c r="A85" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B83" s="11" t="s">
+      <c r="B85" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="C85" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D83" s="21" t="s">
+      <c r="D85" s="21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="84" ht="30" customHeight="1" spans="1:4">
-      <c r="A84" s="12" t="s">
+    <row r="86" ht="30" customHeight="1" spans="1:4">
+      <c r="A86" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B84" s="13" t="s">
+      <c r="B86" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" ht="30" customHeight="1" spans="1:4">
+      <c r="A87" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" ht="30" customHeight="1" spans="1:4">
+      <c r="A88" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B88" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" ht="30" customHeight="1" spans="1:4">
+      <c r="A89" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="C84" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D84" s="25" t="s">
+      <c r="B89" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" s="29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" ht="14.25"/>
+    <row r="92" ht="30" customHeight="1" spans="1:4">
+      <c r="A92" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C92" s="6"/>
+      <c r="D92" s="20"/>
+    </row>
+    <row r="93" ht="30" customHeight="1" spans="1:4">
+      <c r="A93" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D93" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" ht="30" customHeight="1" spans="1:4">
+      <c r="A94" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B94" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" s="25" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="85" ht="30" customHeight="1" spans="1:4">
-      <c r="A85" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B85" s="13" t="s">
+    <row r="95" ht="30" customHeight="1" spans="1:4">
+      <c r="A95" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B95" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C85" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D85" s="25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="86" ht="30" customHeight="1" spans="1:4">
-      <c r="A86" s="26" t="s">
+      <c r="C95" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" ht="30" customHeight="1" spans="1:4">
+      <c r="A96" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C96" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D96" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" ht="30" customHeight="1" spans="1:4">
+      <c r="A97" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B97" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="B86" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C86" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D86" s="27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="87" ht="30" customHeight="1" spans="1:4">
-      <c r="A87" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="B87" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C87" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D87" s="29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="89" ht="14.25"/>
-    <row r="90" ht="30" customHeight="1" spans="1:4">
-      <c r="A90" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C90" s="6"/>
-      <c r="D90" s="20"/>
-    </row>
-    <row r="91" ht="30" customHeight="1" spans="1:4">
-      <c r="A91" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B91" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C91" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D91" s="21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" ht="30" customHeight="1" spans="1:4">
-      <c r="A92" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B92" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C92" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D92" s="25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="93" ht="30" customHeight="1" spans="1:4">
-      <c r="A93" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B93" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C93" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D93" s="25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="94" ht="30" customHeight="1" spans="1:4">
-      <c r="A94" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="B94" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C94" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D94" s="27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="95" ht="30" customHeight="1" spans="1:4">
-      <c r="A95" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="B95" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C95" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D95" s="29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="96" ht="30" customHeight="1" spans="1:4">
-      <c r="A96" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B96" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C96" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D96" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="97" ht="30" customHeight="1" spans="1:4">
-      <c r="A97" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B97" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C97" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D97" s="15" t="s">
+      <c r="C97" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" s="29" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3192,275 +3210,275 @@
         <v>16</v>
       </c>
     </row>
-    <row r="100" ht="14.25"/>
-    <row r="101" ht="30" customHeight="1" spans="1:4">
-      <c r="A101" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C101" s="6"/>
-      <c r="D101" s="20"/>
-    </row>
-    <row r="102" ht="30" customHeight="1" spans="1:4">
-      <c r="A102" s="10" t="s">
+    <row r="99" ht="30" customHeight="1" spans="1:4">
+      <c r="A99" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B99" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C99" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" ht="30" customHeight="1" spans="1:4">
+      <c r="A100" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B100" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" ht="14.25"/>
+    <row r="103" ht="30" customHeight="1" spans="1:4">
+      <c r="A103" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C103" s="6"/>
+      <c r="D103" s="20"/>
+    </row>
+    <row r="104" ht="30" customHeight="1" spans="1:4">
+      <c r="A104" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B102" s="11" t="s">
+      <c r="B104" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C102" s="11" t="s">
+      <c r="C104" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D102" s="21" t="s">
+      <c r="D104" s="21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="103" ht="30" customHeight="1" spans="1:4">
-      <c r="A103" s="12" t="s">
+    <row r="105" ht="30" customHeight="1" spans="1:4">
+      <c r="A105" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B103" s="13" t="s">
+      <c r="B105" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C103" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D103" s="25" t="s">
+      <c r="C105" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105" s="25" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="104" ht="30" customHeight="1" spans="1:4">
-      <c r="A104" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B104" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C104" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D104" s="25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="105" ht="30" customHeight="1" spans="1:4">
-      <c r="A105" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B105" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C105" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D105" s="27" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="106" ht="30" customHeight="1" spans="1:4">
       <c r="A106" s="12" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D106" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" s="25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="107" ht="30" customHeight="1" spans="1:4">
       <c r="A107" s="14" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C107" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="27" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="30" customHeight="1" spans="1:4">
       <c r="A108" s="12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D108" s="25" t="s">
-        <v>25</v>
+        <v>8</v>
+      </c>
+      <c r="D108" s="29" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="109" ht="30" customHeight="1" spans="1:4">
       <c r="A109" s="14" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D109" s="27" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="110" ht="30" customHeight="1" spans="1:4">
       <c r="A110" s="12" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D110" s="29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="112" ht="14.25"/>
-    <row r="113" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A113" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D110" s="25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="111" ht="30" customHeight="1" spans="1:4">
+      <c r="A111" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B111" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B113" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C113" s="6"/>
-      <c r="D113" s="20"/>
-    </row>
-    <row r="114" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A114" s="10" t="s">
+      <c r="C111" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" ht="30" customHeight="1" spans="1:4">
+      <c r="A112" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B112" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C112" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112" s="29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="114" ht="14.25"/>
+    <row r="115" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A115" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C115" s="6"/>
+      <c r="D115" s="20"/>
+    </row>
+    <row r="116" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A116" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B114" s="11" t="s">
+      <c r="B116" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C114" s="11" t="s">
+      <c r="C116" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D114" s="21" t="s">
+      <c r="D116" s="21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="115" ht="30" customHeight="1" spans="1:4">
-      <c r="A115" s="12" t="s">
+    <row r="117" ht="30" customHeight="1" spans="1:4">
+      <c r="A117" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B115" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C115" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D115" s="25" t="s">
+      <c r="B117" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C117" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D117" s="25" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="116" ht="30" customHeight="1" spans="1:4">
-      <c r="A116" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B116" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C116" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D116" s="25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="117" ht="30" customHeight="1" spans="1:4">
-      <c r="A117" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B117" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C117" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D117" s="27" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="118" ht="30" customHeight="1" spans="1:4">
       <c r="A118" s="12" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="C118" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D118" s="25" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="119" ht="30" customHeight="1" spans="1:4">
-      <c r="A119" s="15" t="s">
-        <v>43</v>
+      <c r="A119" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="B119" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C119" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" s="27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120" ht="30" customHeight="1" spans="1:4">
+      <c r="A120" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B120" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C120" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D120" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" ht="30" customHeight="1" spans="1:4">
+      <c r="A121" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B121" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C121" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D121" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" ht="30" customHeight="1" spans="1:4">
+      <c r="A122" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C119" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D119" s="27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="120" ht="30" customHeight="1" spans="1:4">
-      <c r="A120" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B120" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C120" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D120" s="25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="121" ht="30" customHeight="1" spans="1:4">
-      <c r="A121" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B121" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C121" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D121" s="27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="122" ht="30" customHeight="1" spans="1:4">
-      <c r="A122" s="12" t="s">
-        <v>26</v>
-      </c>
       <c r="B122" s="13" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D122" s="25" t="s">
         <v>16</v>
@@ -3468,122 +3486,122 @@
     </row>
     <row r="123" ht="30" customHeight="1" spans="1:4">
       <c r="A123" s="14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C123" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D123" s="25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="125" ht="14.25"/>
-    <row r="126" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A126" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" ht="30" customHeight="1" spans="1:4">
+      <c r="A124" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B124" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B126" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C126" s="6"/>
-      <c r="D126" s="20"/>
-    </row>
-    <row r="127" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A127" s="10" t="s">
+      <c r="C124" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D124" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" ht="30" customHeight="1" spans="1:4">
+      <c r="A125" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B125" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C125" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D125" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" ht="14.25"/>
+    <row r="128" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A128" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C128" s="6"/>
+      <c r="D128" s="20"/>
+    </row>
+    <row r="129" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A129" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B127" s="11" t="s">
+      <c r="B129" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C127" s="11" t="s">
+      <c r="C129" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D127" s="21" t="s">
+      <c r="D129" s="21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="128" ht="30" customHeight="1" spans="1:4">
-      <c r="A128" s="12" t="s">
+    <row r="130" ht="30" customHeight="1" spans="1:4">
+      <c r="A130" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B128" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C128" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D128" s="25" t="s">
+      <c r="B130" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C130" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D130" s="25" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="129" ht="30" customHeight="1" spans="1:4">
-      <c r="A129" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B129" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C129" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D129" s="25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="130" ht="30" customHeight="1" spans="1:4">
-      <c r="A130" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="B130" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="C130" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D130" s="27" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="131" ht="30" customHeight="1" spans="1:4">
       <c r="A131" s="12" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B131" s="13" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="C131" s="13" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D131" s="25" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="132" ht="30" customHeight="1" spans="1:4">
-      <c r="A132" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="B132" s="15" t="s">
+      <c r="A132" s="26" t="s">
         <v>110</v>
       </c>
+      <c r="B132" s="24" t="s">
+        <v>111</v>
+      </c>
       <c r="C132" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D132" s="27" t="s">
-        <v>16</v>
+        <v>112</v>
       </c>
     </row>
     <row r="133" ht="30" customHeight="1" spans="1:4">
       <c r="A133" s="12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B133" s="13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C133" s="13" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D133" s="25" t="s">
         <v>16</v>
@@ -3591,10 +3609,10 @@
     </row>
     <row r="134" ht="30" customHeight="1" spans="1:4">
       <c r="A134" s="14" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="B134" s="15" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C134" s="15" t="s">
         <v>12</v>
@@ -3605,10 +3623,10 @@
     </row>
     <row r="135" ht="30" customHeight="1" spans="1:4">
       <c r="A135" s="12" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C135" s="13" t="s">
         <v>8</v>
@@ -3619,94 +3637,94 @@
     </row>
     <row r="136" ht="30" customHeight="1" spans="1:4">
       <c r="A136" s="14" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="B136" s="15" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C136" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D136" s="27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="138" ht="14.25"/>
-    <row r="139" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A139" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B139" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C139" s="6"/>
-      <c r="D139" s="20"/>
-    </row>
-    <row r="140" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A140" s="10" t="s">
+    <row r="137" ht="30" customHeight="1" spans="1:4">
+      <c r="A137" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B137" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C137" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D137" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" ht="30" customHeight="1" spans="1:4">
+      <c r="A138" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B138" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C138" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D138" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" ht="14.25"/>
+    <row r="141" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A141" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C141" s="6"/>
+      <c r="D141" s="20"/>
+    </row>
+    <row r="142" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A142" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B140" s="11" t="s">
+      <c r="B142" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C140" s="11" t="s">
+      <c r="C142" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D140" s="21" t="s">
+      <c r="D142" s="21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="141" ht="30" customHeight="1" spans="1:4">
-      <c r="A141" s="12" t="s">
+    <row r="143" ht="30" customHeight="1" spans="1:4">
+      <c r="A143" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B141" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C141" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D141" s="25" t="s">
+      <c r="B143" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C143" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D143" s="25" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="142" ht="30" customHeight="1" spans="1:4">
-      <c r="A142" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="B142" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="C142" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D142" s="29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="143" ht="30" customHeight="1" spans="1:4">
-      <c r="A143" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="B143" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="C143" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D143" s="27" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="144" ht="30" customHeight="1" spans="1:4">
       <c r="A144" s="28" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="B144" s="16" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D144" s="29" t="s">
         <v>16</v>
@@ -3714,10 +3732,10 @@
     </row>
     <row r="145" ht="30" customHeight="1" spans="1:4">
       <c r="A145" s="26" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B145" s="24" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C145" s="15" t="s">
         <v>12</v>
@@ -3726,93 +3744,93 @@
         <v>16</v>
       </c>
     </row>
-    <row r="147" ht="14.25"/>
-    <row r="148" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A148" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B148" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C148" s="6"/>
-      <c r="D148" s="20"/>
-    </row>
-    <row r="149" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A149" s="10" t="s">
+    <row r="146" ht="30" customHeight="1" spans="1:4">
+      <c r="A146" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="B146" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C146" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D146" s="29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147" ht="30" customHeight="1" spans="1:4">
+      <c r="A147" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="B147" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C147" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="149" ht="14.25"/>
+    <row r="150" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A150" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C150" s="6"/>
+      <c r="D150" s="20"/>
+    </row>
+    <row r="151" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A151" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B149" s="11" t="s">
+      <c r="B151" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C149" s="11" t="s">
+      <c r="C151" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D149" s="21" t="s">
+      <c r="D151" s="21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="150" ht="30" customHeight="1" spans="1:4">
-      <c r="A150" s="12" t="s">
+    <row r="152" ht="30" customHeight="1" spans="1:4">
+      <c r="A152" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B150" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="C150" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D150" s="25" t="s">
+      <c r="B152" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C152" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D152" s="25" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="151" ht="30" customHeight="1" spans="1:4">
-      <c r="A151" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="B151" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="C151" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D151" s="25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="152" ht="30" customHeight="1" spans="1:4">
-      <c r="A152" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="B152" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="C152" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D152" s="27" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="153" ht="30" customHeight="1" spans="1:4">
       <c r="A153" s="28" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B153" s="16" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C153" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D153" s="29" t="s">
+      <c r="D153" s="25" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="154" ht="30" customHeight="1" spans="1:4">
       <c r="A154" s="26" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B154" s="24" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C154" s="15" t="s">
         <v>12</v>
@@ -3821,344 +3839,344 @@
         <v>16</v>
       </c>
     </row>
-    <row r="156" ht="14.25"/>
-    <row r="157" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A157" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B157" s="5" t="s">
+    <row r="155" ht="30" customHeight="1" spans="1:4">
+      <c r="A155" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="B155" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C155" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D155" s="29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="156" ht="30" customHeight="1" spans="1:4">
+      <c r="A156" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="C157" s="6"/>
-      <c r="D157" s="20"/>
-    </row>
-    <row r="158" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A158" s="10" t="s">
+      <c r="B156" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C156" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D156" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="158" ht="14.25"/>
+    <row r="159" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A159" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C159" s="6"/>
+      <c r="D159" s="20"/>
+    </row>
+    <row r="160" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A160" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B158" s="11" t="s">
+      <c r="B160" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C158" s="11" t="s">
+      <c r="C160" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D158" s="21" t="s">
+      <c r="D160" s="21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="159" ht="30" customHeight="1" spans="1:4">
-      <c r="A159" s="14" t="s">
+    <row r="161" ht="30" customHeight="1" spans="1:4">
+      <c r="A161" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B159" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="C159" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D159" s="27" t="s">
+      <c r="B161" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C161" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D161" s="27" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="160" ht="30" customHeight="1" spans="1:4">
-      <c r="A160" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="B160" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="C160" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D160" s="32" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="161" customHeight="1" spans="1:4">
-      <c r="A161" s="33"/>
-      <c r="B161" s="33"/>
-      <c r="C161" s="33"/>
-      <c r="D161" s="33"/>
-    </row>
-    <row r="162" ht="14.25" spans="1:4">
-      <c r="A162" s="33"/>
-      <c r="B162" s="33"/>
-      <c r="C162" s="33"/>
-      <c r="D162" s="33"/>
-    </row>
-    <row r="163" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A163" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="B163" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="C163" s="35"/>
-      <c r="D163" s="36"/>
-    </row>
-    <row r="164" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A164" s="10" t="s">
+    <row r="162" ht="30" customHeight="1" spans="1:4">
+      <c r="A162" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="B162" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="C162" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D162" s="32" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="163" customHeight="1" spans="1:4">
+      <c r="A163" s="33"/>
+      <c r="B163" s="33"/>
+      <c r="C163" s="33"/>
+      <c r="D163" s="33"/>
+    </row>
+    <row r="164" ht="14.25" spans="1:4">
+      <c r="A164" s="33"/>
+      <c r="B164" s="33"/>
+      <c r="C164" s="33"/>
+      <c r="D164" s="33"/>
+    </row>
+    <row r="165" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A165" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B165" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="C165" s="35"/>
+      <c r="D165" s="36"/>
+    </row>
+    <row r="166" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A166" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B164" s="11" t="s">
+      <c r="B166" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C164" s="11" t="s">
+      <c r="C166" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D164" s="21" t="s">
+      <c r="D166" s="21" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="165" ht="30" customHeight="1" spans="1:4">
-      <c r="A165" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B165" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="C165" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D165" s="27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="166" ht="30" customHeight="1" spans="1:4">
-      <c r="A166" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="B166" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="C166" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D166" s="32" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="167" ht="30" customHeight="1" spans="1:4">
       <c r="A167" s="14" t="s">
-        <v>139</v>
+        <v>6</v>
       </c>
       <c r="B167" s="15" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C167" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D167" s="27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="168" customHeight="1" spans="1:4">
-      <c r="A168" s="33"/>
-      <c r="B168" s="33"/>
-      <c r="C168" s="33"/>
-      <c r="D168" s="33"/>
-    </row>
-    <row r="169" ht="14.25" spans="1:4">
-      <c r="A169" s="33"/>
-      <c r="B169" s="33"/>
-      <c r="C169" s="33"/>
-      <c r="D169" s="33"/>
-    </row>
-    <row r="170" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A170" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="B170" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="C170" s="35"/>
-      <c r="D170" s="36"/>
-    </row>
-    <row r="171" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A171" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168" ht="30" customHeight="1" spans="1:4">
+      <c r="A168" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="B168" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="C168" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D168" s="32" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="169" ht="30" customHeight="1" spans="1:4">
+      <c r="A169" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B169" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C169" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D169" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="170" customHeight="1" spans="1:4">
+      <c r="A170" s="33"/>
+      <c r="B170" s="33"/>
+      <c r="C170" s="33"/>
+      <c r="D170" s="33"/>
+    </row>
+    <row r="171" ht="14.25" spans="1:4">
+      <c r="A171" s="33"/>
+      <c r="B171" s="33"/>
+      <c r="C171" s="33"/>
+      <c r="D171" s="33"/>
+    </row>
+    <row r="172" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A172" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B172" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="C172" s="35"/>
+      <c r="D172" s="36"/>
+    </row>
+    <row r="173" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A173" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B171" s="11" t="s">
+      <c r="B173" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C171" s="11" t="s">
+      <c r="C173" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D171" s="21" t="s">
+      <c r="D173" s="21" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="172" ht="30" customHeight="1" spans="1:4">
-      <c r="A172" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B172" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="C172" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D172" s="27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="173" ht="30" customHeight="1" spans="1:4">
-      <c r="A173" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="B173" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="C173" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D173" s="25" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="174" ht="30" customHeight="1" spans="1:4">
       <c r="A174" s="14" t="s">
-        <v>145</v>
+        <v>6</v>
       </c>
       <c r="B174" s="15" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C174" s="15" t="s">
         <v>8</v>
       </c>
       <c r="D174" s="27" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="175" ht="30" customHeight="1" spans="1:4">
       <c r="A175" s="12" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B175" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="C175" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C175" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D175" s="25" t="s">
-        <v>149</v>
+        <v>16</v>
       </c>
     </row>
     <row r="176" ht="30" customHeight="1" spans="1:4">
       <c r="A176" s="14" t="s">
-        <v>23</v>
+        <v>151</v>
       </c>
       <c r="B176" s="15" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C176" s="15" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D176" s="27" t="s">
-        <v>151</v>
+        <v>16</v>
       </c>
     </row>
     <row r="177" ht="30" customHeight="1" spans="1:4">
       <c r="A177" s="12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B177" s="13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C177" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D177" s="25" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="178" ht="14.25" customHeight="1" spans="1:4">
-      <c r="A178" s="37"/>
-      <c r="B178" s="37"/>
-      <c r="C178" s="37"/>
-      <c r="D178" s="37"/>
-    </row>
-    <row r="179" ht="14.25" spans="1:4">
-      <c r="A179" s="33"/>
-      <c r="B179" s="33"/>
-      <c r="C179" s="33"/>
-      <c r="D179" s="33"/>
-    </row>
-    <row r="180" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A180" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="B180" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="C180" s="35"/>
-      <c r="D180" s="36"/>
-    </row>
-    <row r="181" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A181" s="10" t="s">
+    </row>
+    <row r="178" ht="30" customHeight="1" spans="1:4">
+      <c r="A178" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B178" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C178" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D178" s="27" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="179" ht="30" customHeight="1" spans="1:4">
+      <c r="A179" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B179" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C179" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D179" s="25" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="180" ht="14.25" customHeight="1" spans="1:4">
+      <c r="A180" s="37"/>
+      <c r="B180" s="37"/>
+      <c r="C180" s="37"/>
+      <c r="D180" s="37"/>
+    </row>
+    <row r="181" ht="14.25" spans="1:4">
+      <c r="A181" s="33"/>
+      <c r="B181" s="33"/>
+      <c r="C181" s="33"/>
+      <c r="D181" s="33"/>
+    </row>
+    <row r="182" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A182" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B182" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="C182" s="35"/>
+      <c r="D182" s="36"/>
+    </row>
+    <row r="183" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A183" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B181" s="11" t="s">
+      <c r="B183" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C181" s="11" t="s">
+      <c r="C183" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D181" s="21" t="s">
+      <c r="D183" s="21" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="182" ht="30" customHeight="1" spans="1:4">
-      <c r="A182" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B182" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C182" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D182" s="27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="183" ht="30" customHeight="1" spans="1:4">
-      <c r="A183" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B183" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="C183" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D183" s="25" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="184" ht="30" customHeight="1" spans="1:4">
       <c r="A184" s="14" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="B184" s="15" t="s">
-        <v>157</v>
+        <v>92</v>
       </c>
       <c r="C184" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D184" s="27" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="185" ht="30" customHeight="1" spans="1:4">
       <c r="A185" s="12" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="B185" s="13" t="s">
-        <v>116</v>
+        <v>162</v>
       </c>
       <c r="C185" s="13" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D185" s="25" t="s">
         <v>16</v>
@@ -4166,10 +4184,10 @@
     </row>
     <row r="186" ht="30" customHeight="1" spans="1:4">
       <c r="A186" s="14" t="s">
-        <v>158</v>
+        <v>44</v>
       </c>
       <c r="B186" s="15" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C186" s="15" t="s">
         <v>12</v>
@@ -4180,156 +4198,184 @@
     </row>
     <row r="187" ht="30" customHeight="1" spans="1:4">
       <c r="A187" s="12" t="s">
-        <v>160</v>
+        <v>19</v>
       </c>
       <c r="B187" s="13" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="C187" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D187" s="25" t="s">
-        <v>162</v>
+        <v>16</v>
       </c>
     </row>
     <row r="188" ht="30" customHeight="1" spans="1:4">
       <c r="A188" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="B188" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C188" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D188" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="189" ht="30" customHeight="1" spans="1:4">
+      <c r="A189" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B189" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C189" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D189" s="25" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="190" ht="30" customHeight="1" spans="1:4">
+      <c r="A190" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B190" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C190" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B188" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="C188" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D188" s="27" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="189" customHeight="1" spans="1:4">
-      <c r="A189" s="33"/>
-      <c r="B189" s="33"/>
-      <c r="C189" s="33"/>
-      <c r="D189" s="33"/>
-    </row>
-    <row r="190" ht="14.25" customHeight="1" spans="1:4">
-      <c r="A190" s="33"/>
-      <c r="B190" s="33"/>
-      <c r="C190" s="33"/>
-      <c r="D190" s="33"/>
-    </row>
-    <row r="191" ht="30" customHeight="1" spans="1:4">
-      <c r="A191" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="B191" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="C191" s="35"/>
-      <c r="D191" s="36"/>
-    </row>
-    <row r="192" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A192" s="10" t="s">
+      <c r="D190" s="27" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="191" customHeight="1" spans="1:4">
+      <c r="A191" s="33"/>
+      <c r="B191" s="33"/>
+      <c r="C191" s="33"/>
+      <c r="D191" s="33"/>
+    </row>
+    <row r="192" ht="14.25" customHeight="1" spans="1:4">
+      <c r="A192" s="33"/>
+      <c r="B192" s="33"/>
+      <c r="C192" s="33"/>
+      <c r="D192" s="33"/>
+    </row>
+    <row r="193" ht="30" customHeight="1" spans="1:4">
+      <c r="A193" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B193" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="C193" s="35"/>
+      <c r="D193" s="36"/>
+    </row>
+    <row r="194" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A194" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B192" s="11" t="s">
+      <c r="B194" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C192" s="11" t="s">
+      <c r="C194" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D192" s="21" t="s">
+      <c r="D194" s="21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="193" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A193" s="14" t="s">
+    <row r="195" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A195" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B193" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="C193" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D193" s="27" t="s">
+      <c r="B195" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="C195" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D195" s="27" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="194" ht="30" customHeight="1" spans="1:4">
-      <c r="A194" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="B194" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="C194" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D194" s="25" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="195" ht="30" customHeight="1" spans="1:4">
-      <c r="A195" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="B195" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="C195" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D195" s="27" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="196" ht="30" customHeight="1" spans="1:4">
       <c r="A196" s="12" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B196" s="13" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C196" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D196" s="25" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="197" customHeight="1" spans="1:4">
-      <c r="A197" s="33"/>
-      <c r="B197" s="33"/>
-      <c r="C197" s="33"/>
-      <c r="D197" s="33"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="197" ht="30" customHeight="1" spans="1:4">
+      <c r="A197" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="B197" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="C197" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D197" s="27" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="198" ht="30" customHeight="1" spans="1:4">
+      <c r="A198" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B198" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C198" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D198" s="25" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="199" customHeight="1" spans="1:4">
+      <c r="A199" s="33"/>
+      <c r="B199" s="33"/>
+      <c r="C199" s="33"/>
+      <c r="D199" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="20">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="B126:D126"/>
-    <mergeCell ref="B139:D139"/>
-    <mergeCell ref="B148:D148"/>
-    <mergeCell ref="B157:D157"/>
-    <mergeCell ref="B163:D163"/>
-    <mergeCell ref="B170:D170"/>
-    <mergeCell ref="B180:D180"/>
-    <mergeCell ref="B191:D191"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="B128:D128"/>
+    <mergeCell ref="B141:D141"/>
+    <mergeCell ref="B150:D150"/>
+    <mergeCell ref="B159:D159"/>
+    <mergeCell ref="B165:D165"/>
+    <mergeCell ref="B172:D172"/>
+    <mergeCell ref="B182:D182"/>
+    <mergeCell ref="B193:D193"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A67" r:id="rId12" display="sponsor" tooltip="file:///D:\Dict\7.2.0.0511\resultui\dict\?keyword=sponsor"/>
-    <hyperlink ref="A69" r:id="rId13" display="principal" tooltip="file:///D:\Dict\7.2.0.0511\resultui\dict\?keyword=principal"/>
+    <hyperlink ref="A69" r:id="rId12" display="sponsor" tooltip="file:///D:\Dict\7.2.0.0511\resultui\dict\?keyword=sponsor"/>
+    <hyperlink ref="A71" r:id="rId13" display="principal" tooltip="file:///D:\Dict\7.2.0.0511\resultui\dict\?keyword=principal"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/docs/开场数据字典.xlsx
+++ b/docs/开场数据字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199">
   <si>
     <t>开场数据字典</t>
   </si>
@@ -510,16 +510,67 @@
     <t>链接地址</t>
   </si>
   <si>
-    <t>广告表 (ads)</t>
+    <t>友情链接 (ad)</t>
   </si>
   <si>
     <t>广告ID</t>
   </si>
   <si>
-    <t>content</t>
-  </si>
-  <si>
-    <t>内容</t>
+    <t>ad_name</t>
+  </si>
+  <si>
+    <t>广告名称</t>
+  </si>
+  <si>
+    <t>ad_site</t>
+  </si>
+  <si>
+    <t>广告地址</t>
+  </si>
+  <si>
+    <t>ad_rencount</t>
+  </si>
+  <si>
+    <t>容纳人数</t>
+  </si>
+  <si>
+    <t>init</t>
+  </si>
+  <si>
+    <t>ad_count</t>
+  </si>
+  <si>
+    <t>会场数量</t>
+  </si>
+  <si>
+    <t>ad_phone</t>
+  </si>
+  <si>
+    <t>广告商电话</t>
+  </si>
+  <si>
+    <t>char(25)</t>
+  </si>
+  <si>
+    <t>ad_area</t>
+  </si>
+  <si>
+    <t>会场面积</t>
+  </si>
+  <si>
+    <t>ad_token</t>
+  </si>
+  <si>
+    <t>ad_image</t>
+  </si>
+  <si>
+    <t>会场图片</t>
+  </si>
+  <si>
+    <t>ad_url</t>
+  </si>
+  <si>
+    <t>varchar(500)</t>
   </si>
   <si>
     <t>场地属性值表 (goods_values)</t>
@@ -660,9 +711,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -708,15 +759,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -737,9 +787,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -747,17 +796,17 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -769,25 +818,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -815,20 +871,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -837,8 +879,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -889,7 +940,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -901,7 +1006,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -913,7 +1024,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -931,133 +1102,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1295,6 +1346,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1305,30 +1380,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1351,11 +1402,35 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1368,30 +1443,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1400,10 +1451,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1412,133 +1463,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1708,6 +1759,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1796,7 +1852,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="表2_345689101112" displayName="表2_345689101112" ref="A165:D167" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="表2_345689101112" displayName="表2_345689101112" ref="A165:D168" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" name="字段名"/>
     <tableColumn id="2" name="说明"/>
@@ -2114,10 +2170,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I213"/>
+  <dimension ref="A1:I218"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="B173" sqref="B173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2299,6 +2355,7 @@
         <v>35</v>
       </c>
     </row>
+    <row r="17" ht="14.25"/>
     <row r="18" ht="35.1" customHeight="1" spans="1:6">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
@@ -3996,10 +4053,10 @@
     </row>
     <row r="167" ht="30" customHeight="1" spans="1:4">
       <c r="A167" s="28" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="B167" s="14" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C167" s="14" t="s">
         <v>12</v>
@@ -4009,529 +4066,593 @@
       </c>
     </row>
     <row r="168" ht="30" customHeight="1" spans="1:4">
-      <c r="A168" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="B168" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="C168" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D168" s="27" t="s">
+      <c r="A168" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="B168" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C168" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D168" s="25" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="169" ht="30" customHeight="1" spans="1:4">
-      <c r="A169" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="B169" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="C169" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D169" s="29" t="s">
+      <c r="A169" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="B169" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="C169" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D169" s="27" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="170" ht="30" customHeight="1" spans="1:4">
       <c r="A170" s="26" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="B170" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C170" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D170" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="171" ht="30" customHeight="1" spans="1:4">
+      <c r="A171" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B171" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C171" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D171" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="172" ht="30" customHeight="1" spans="1:4">
+      <c r="A172" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="B172" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C172" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D172" s="29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="173" ht="30" customHeight="1" spans="1:4">
+      <c r="A173" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="B173" s="14"/>
+      <c r="C173" s="14"/>
+      <c r="D173" s="29"/>
+    </row>
+    <row r="174" ht="30" customHeight="1" spans="1:4">
+      <c r="A174" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="B174" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="C174" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D174" s="29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="175" ht="30" customHeight="1" spans="1:4">
+      <c r="A175" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="B175" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="C170" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D170" s="27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="172" ht="14.25"/>
-    <row r="173" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A173" s="4" t="s">
+      <c r="C175" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D175" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="177" ht="14.25"/>
+    <row r="178" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A178" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B173" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C173" s="6"/>
-      <c r="D173" s="20"/>
-    </row>
-    <row r="174" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A174" s="8" t="s">
+      <c r="B178" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C178" s="6"/>
+      <c r="D178" s="20"/>
+    </row>
+    <row r="179" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A179" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B174" s="9" t="s">
+      <c r="B179" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C174" s="9" t="s">
+      <c r="C179" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D174" s="21" t="s">
+      <c r="D179" s="21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="175" ht="30" customHeight="1" spans="1:4">
-      <c r="A175" s="12" t="s">
+    <row r="180" ht="30" customHeight="1" spans="1:4">
+      <c r="A180" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B175" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="C175" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D175" s="27" t="s">
+      <c r="B180" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C180" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D180" s="27" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="176" ht="30" customHeight="1" spans="1:4">
-      <c r="A176" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="B176" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="C176" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D176" s="32" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="177" customHeight="1" spans="1:4">
-      <c r="A177" s="33"/>
-      <c r="B177" s="33"/>
-      <c r="C177" s="33"/>
-      <c r="D177" s="33"/>
-    </row>
-    <row r="178" ht="14.25" spans="1:4">
-      <c r="A178" s="33"/>
-      <c r="B178" s="33"/>
-      <c r="C178" s="33"/>
-      <c r="D178" s="33"/>
-    </row>
-    <row r="179" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A179" s="34" t="s">
+    <row r="181" ht="30" customHeight="1" spans="1:4">
+      <c r="A181" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="B181" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="C181" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D181" s="32" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="182" customHeight="1" spans="1:4">
+      <c r="A182" s="33"/>
+      <c r="B182" s="33"/>
+      <c r="C182" s="33"/>
+      <c r="D182" s="33"/>
+    </row>
+    <row r="183" ht="14.25" spans="1:4">
+      <c r="A183" s="33"/>
+      <c r="B183" s="33"/>
+      <c r="C183" s="33"/>
+      <c r="D183" s="33"/>
+    </row>
+    <row r="184" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A184" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B179" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="C179" s="35"/>
-      <c r="D179" s="36"/>
-    </row>
-    <row r="180" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A180" s="8" t="s">
+      <c r="B184" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="C184" s="35"/>
+      <c r="D184" s="36"/>
+    </row>
+    <row r="185" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A185" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B180" s="9" t="s">
+      <c r="B185" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C180" s="9" t="s">
+      <c r="C185" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D180" s="21" t="s">
+      <c r="D185" s="21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="181" ht="30" customHeight="1" spans="1:4">
-      <c r="A181" s="12" t="s">
+    <row r="186" ht="30" customHeight="1" spans="1:4">
+      <c r="A186" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B181" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="C181" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D181" s="27" t="s">
+      <c r="B186" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C186" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D186" s="27" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="182" ht="30" customHeight="1" spans="1:4">
-      <c r="A182" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="B182" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="C182" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D182" s="32" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="183" ht="30" customHeight="1" spans="1:4">
-      <c r="A183" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B183" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C183" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D183" s="27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="184" customHeight="1" spans="1:4">
-      <c r="A184" s="33"/>
-      <c r="B184" s="33"/>
-      <c r="C184" s="33"/>
-      <c r="D184" s="33"/>
-    </row>
-    <row r="185" ht="14.25" spans="1:4">
-      <c r="A185" s="33"/>
-      <c r="B185" s="33"/>
-      <c r="C185" s="33"/>
-      <c r="D185" s="33"/>
-    </row>
-    <row r="186" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A186" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B186" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="C186" s="35"/>
-      <c r="D186" s="36"/>
-    </row>
-    <row r="187" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A187" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B187" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C187" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D187" s="21" t="s">
-        <v>5</v>
+    <row r="187" ht="30" customHeight="1" spans="1:4">
+      <c r="A187" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="B187" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="C187" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D187" s="32" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="188" ht="30" customHeight="1" spans="1:4">
       <c r="A188" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B188" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C188" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D188" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="189" customHeight="1" spans="1:4">
+      <c r="A189" s="33"/>
+      <c r="B189" s="33"/>
+      <c r="C189" s="33"/>
+      <c r="D189" s="33"/>
+    </row>
+    <row r="190" ht="14.25" spans="1:4">
+      <c r="A190" s="33"/>
+      <c r="B190" s="33"/>
+      <c r="C190" s="33"/>
+      <c r="D190" s="33"/>
+    </row>
+    <row r="191" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A191" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B191" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="C191" s="35"/>
+      <c r="D191" s="36"/>
+    </row>
+    <row r="192" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A192" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B192" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C192" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D192" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" ht="30" customHeight="1" spans="1:4">
+      <c r="A193" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B188" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="C188" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D188" s="27" t="s">
+      <c r="B193" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="C193" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D193" s="27" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="189" ht="30" customHeight="1" spans="1:4">
-      <c r="A189" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="B189" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="C189" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D189" s="25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="190" ht="30" customHeight="1" spans="1:4">
-      <c r="A190" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="B190" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="C190" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D190" s="27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="191" ht="30" customHeight="1" spans="1:4">
-      <c r="A191" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="B191" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C191" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D191" s="25" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="192" ht="30" customHeight="1" spans="1:4">
-      <c r="A192" s="12" t="s">
+    <row r="194" ht="30" customHeight="1" spans="1:4">
+      <c r="A194" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B194" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C194" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D194" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="195" ht="30" customHeight="1" spans="1:4">
+      <c r="A195" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B195" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C195" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D195" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="196" ht="30" customHeight="1" spans="1:4">
+      <c r="A196" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B196" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C196" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D196" s="25" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="197" ht="30" customHeight="1" spans="1:4">
+      <c r="A197" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B192" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="C192" s="13" t="s">
+      <c r="B197" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C197" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D192" s="27" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="193" ht="30" customHeight="1" spans="1:4">
-      <c r="A193" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="B193" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="C193" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D193" s="25" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="194" ht="14.25" customHeight="1" spans="1:4">
-      <c r="A194" s="37"/>
-      <c r="B194" s="37"/>
-      <c r="C194" s="37"/>
-      <c r="D194" s="37"/>
-    </row>
-    <row r="195" ht="14.25" spans="1:4">
-      <c r="A195" s="33"/>
-      <c r="B195" s="33"/>
-      <c r="C195" s="33"/>
-      <c r="D195" s="33"/>
-    </row>
-    <row r="196" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A196" s="34" t="s">
+      <c r="D197" s="27" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="198" ht="30" customHeight="1" spans="1:4">
+      <c r="A198" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B198" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C198" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D198" s="25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="199" ht="14.25" customHeight="1" spans="1:4">
+      <c r="A199" s="37"/>
+      <c r="B199" s="37"/>
+      <c r="C199" s="37"/>
+      <c r="D199" s="37"/>
+    </row>
+    <row r="200" ht="14.25" spans="1:4">
+      <c r="A200" s="33"/>
+      <c r="B200" s="33"/>
+      <c r="C200" s="33"/>
+      <c r="D200" s="33"/>
+    </row>
+    <row r="201" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A201" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B196" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="C196" s="35"/>
-      <c r="D196" s="36"/>
-    </row>
-    <row r="197" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A197" s="8" t="s">
+      <c r="B201" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="C201" s="35"/>
+      <c r="D201" s="36"/>
+    </row>
+    <row r="202" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A202" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B197" s="9" t="s">
+      <c r="B202" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C197" s="9" t="s">
+      <c r="C202" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D197" s="21" t="s">
+      <c r="D202" s="21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="198" ht="30" customHeight="1" spans="1:4">
-      <c r="A198" s="12" t="s">
+    <row r="203" ht="30" customHeight="1" spans="1:4">
+      <c r="A203" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B198" s="13" t="s">
+      <c r="B203" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C198" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D198" s="27" t="s">
+      <c r="C203" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D203" s="27" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="199" ht="30" customHeight="1" spans="1:4">
-      <c r="A199" s="10" t="s">
+    <row r="204" ht="30" customHeight="1" spans="1:4">
+      <c r="A204" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B199" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="C199" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D199" s="25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="200" ht="30" customHeight="1" spans="1:4">
-      <c r="A200" s="12" t="s">
+      <c r="B204" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C204" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D204" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="205" ht="30" customHeight="1" spans="1:4">
+      <c r="A205" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B200" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="C200" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D200" s="27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="201" ht="30" customHeight="1" spans="1:4">
-      <c r="A201" s="10" t="s">
+      <c r="B205" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="C205" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D205" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="206" ht="30" customHeight="1" spans="1:4">
+      <c r="A206" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B201" s="11" t="s">
+      <c r="B206" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C201" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D201" s="25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="202" ht="30" customHeight="1" spans="1:4">
-      <c r="A202" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="B202" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="C202" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D202" s="27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="203" ht="30" customHeight="1" spans="1:4">
-      <c r="A203" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="B203" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="C203" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D203" s="25" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="204" ht="30" customHeight="1" spans="1:4">
-      <c r="A204" s="12" t="s">
+      <c r="C206" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D206" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="207" ht="30" customHeight="1" spans="1:4">
+      <c r="A207" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="B207" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C207" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D207" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="208" ht="30" customHeight="1" spans="1:4">
+      <c r="A208" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B208" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C208" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D208" s="25" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="209" ht="30" customHeight="1" spans="1:4">
+      <c r="A209" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B204" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="C204" s="13" t="s">
+      <c r="B209" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="C209" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D204" s="27" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="205" customHeight="1" spans="1:4">
-      <c r="A205" s="33"/>
-      <c r="B205" s="33"/>
-      <c r="C205" s="33"/>
-      <c r="D205" s="33"/>
-    </row>
-    <row r="206" ht="14.25" customHeight="1" spans="1:4">
-      <c r="A206" s="33"/>
-      <c r="B206" s="33"/>
-      <c r="C206" s="33"/>
-      <c r="D206" s="33"/>
-    </row>
-    <row r="207" ht="30" customHeight="1" spans="1:4">
-      <c r="A207" s="34" t="s">
+      <c r="D209" s="27" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="210" customHeight="1" spans="1:4">
+      <c r="A210" s="33"/>
+      <c r="B210" s="33"/>
+      <c r="C210" s="33"/>
+      <c r="D210" s="33"/>
+    </row>
+    <row r="211" ht="14.25" customHeight="1" spans="1:4">
+      <c r="A211" s="33"/>
+      <c r="B211" s="33"/>
+      <c r="C211" s="33"/>
+      <c r="D211" s="33"/>
+    </row>
+    <row r="212" ht="30" customHeight="1" spans="1:4">
+      <c r="A212" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B207" s="35" t="s">
-        <v>174</v>
-      </c>
-      <c r="C207" s="35"/>
-      <c r="D207" s="36"/>
-    </row>
-    <row r="208" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A208" s="8" t="s">
+      <c r="B212" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="C212" s="35"/>
+      <c r="D212" s="36"/>
+    </row>
+    <row r="213" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A213" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B208" s="9" t="s">
+      <c r="B213" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C208" s="9" t="s">
+      <c r="C213" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D208" s="21" t="s">
+      <c r="D213" s="21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="209" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A209" s="12" t="s">
+    <row r="214" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A214" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B209" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="C209" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D209" s="27" t="s">
+      <c r="B214" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C214" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D214" s="27" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="210" ht="30" customHeight="1" spans="1:4">
-      <c r="A210" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="B210" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="C210" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D210" s="25" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="211" ht="30" customHeight="1" spans="1:4">
-      <c r="A211" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="B211" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="C211" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D211" s="27" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="212" ht="30" customHeight="1" spans="1:4">
-      <c r="A212" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="B212" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="C212" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D212" s="25" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="213" customHeight="1" spans="1:4">
-      <c r="A213" s="33"/>
-      <c r="B213" s="33"/>
-      <c r="C213" s="33"/>
-      <c r="D213" s="33"/>
+    <row r="215" ht="30" customHeight="1" spans="1:4">
+      <c r="A215" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B215" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C215" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D215" s="25" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="216" ht="30" customHeight="1" spans="1:4">
+      <c r="A216" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="B216" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C216" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D216" s="27" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="217" ht="30" customHeight="1" spans="1:4">
+      <c r="A217" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B217" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C217" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D217" s="25" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="218" customHeight="1" spans="1:4">
+      <c r="A218" s="33"/>
+      <c r="B218" s="33"/>
+      <c r="C218" s="33"/>
+      <c r="D218" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -4551,11 +4672,11 @@
     <mergeCell ref="B142:D142"/>
     <mergeCell ref="B155:D155"/>
     <mergeCell ref="B164:D164"/>
-    <mergeCell ref="B173:D173"/>
-    <mergeCell ref="B179:D179"/>
-    <mergeCell ref="B186:D186"/>
-    <mergeCell ref="B196:D196"/>
-    <mergeCell ref="B207:D207"/>
+    <mergeCell ref="B178:D178"/>
+    <mergeCell ref="B184:D184"/>
+    <mergeCell ref="B191:D191"/>
+    <mergeCell ref="B201:D201"/>
+    <mergeCell ref="B212:D212"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A83" r:id="rId13" display="sponsor" tooltip="file:///D:\Dict\7.2.0.0511\resultui\dict\?keyword=sponsor"/>

--- a/docs/开场数据字典.xlsx
+++ b/docs/开场数据字典.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210">
   <si>
     <t>开场数据字典</t>
   </si>
@@ -704,16 +704,49 @@
   <si>
     <t>商品属性值ID</t>
   </si>
+  <si>
+    <t>评论管理信息表(comment)</t>
+  </si>
+  <si>
+    <t>pl_site</t>
+  </si>
+  <si>
+    <t>所用场地</t>
+  </si>
+  <si>
+    <t>pl_rencount</t>
+  </si>
+  <si>
+    <t>会议人数</t>
+  </si>
+  <si>
+    <t>pl_image</t>
+  </si>
+  <si>
+    <t>评论图片</t>
+  </si>
+  <si>
+    <t>pl_content</t>
+  </si>
+  <si>
+    <t>评论内容</t>
+  </si>
+  <si>
+    <t>pl_type</t>
+  </si>
+  <si>
+    <t>会议类型</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -759,6 +792,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -766,7 +822,60 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -787,69 +896,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -874,22 +923,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -940,156 +973,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1102,13 +985,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1348,39 +1381,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1403,19 +1417,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1434,15 +1476,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1451,10 +1484,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1463,133 +1496,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2170,10 +2203,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I218"/>
+  <dimension ref="A1:I228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="B173" sqref="B173"/>
+    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="D227" sqref="D227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4654,8 +4687,117 @@
       <c r="C218" s="33"/>
       <c r="D218" s="33"/>
     </row>
+    <row r="220" ht="14.25"/>
+    <row r="221" ht="30" customHeight="1" spans="1:4">
+      <c r="A221" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B221" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="C221" s="35"/>
+      <c r="D221" s="36"/>
+    </row>
+    <row r="222" ht="30" customHeight="1" spans="1:4">
+      <c r="A222" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B222" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C222" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D222" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="223" ht="30" customHeight="1" spans="1:4">
+      <c r="A223" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B223" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C223" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D223" s="27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="224" ht="30" customHeight="1" spans="1:4">
+      <c r="A224" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B224" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="C224" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D224" s="25" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="225" ht="30" customHeight="1" spans="1:4">
+      <c r="A225" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B225" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="C225" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D225" s="27" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="226" ht="30" customHeight="1" spans="1:4">
+      <c r="A226" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B226" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="C226" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D226" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="227" ht="30" customHeight="1" spans="1:4">
+      <c r="A227" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="B227" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="C227" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D227" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="228" ht="30" customHeight="1" spans="1:4">
+      <c r="A228" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B228" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="C228" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D228" s="25" t="s">
+        <v>188</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="22">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B18:D18"/>
@@ -4677,6 +4819,7 @@
     <mergeCell ref="B191:D191"/>
     <mergeCell ref="B201:D201"/>
     <mergeCell ref="B212:D212"/>
+    <mergeCell ref="B221:D221"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A83" r:id="rId13" display="sponsor" tooltip="file:///D:\Dict\7.2.0.0511\resultui\dict\?keyword=sponsor"/>

--- a/docs/开场数据字典.xlsx
+++ b/docs/开场数据字典.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202">
   <si>
     <t>开场数据字典</t>
   </si>
@@ -186,6 +186,24 @@
   </si>
   <si>
     <t>餐饮</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>审核状态</t>
+  </si>
+  <si>
+    <t>非空、默认：待审核（0 待审核；1 通过；2 不通过）</t>
+  </si>
+  <si>
+    <t>商户审核未通过原因表 (reason)</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>未通过原因</t>
   </si>
   <si>
     <t>表名</t>
@@ -561,9 +579,6 @@
     <t>广告ID</t>
   </si>
   <si>
-    <t>content</t>
-  </si>
-  <si>
     <t>内容</t>
   </si>
   <si>
@@ -704,10 +719,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -753,15 +768,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -782,25 +789,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -808,21 +805,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -838,9 +820,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -861,19 +843,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -882,6 +882,21 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -934,13 +949,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,13 +967,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -970,91 +997,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1072,13 +1027,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1090,19 +1117,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1340,41 +1355,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1390,17 +1375,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1429,6 +1403,47 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1445,10 +1460,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1457,133 +1472,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1769,7 +1784,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="表2_3456891018" displayName="表2_3456891018" ref="A111:D113" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="表2_3456891018" displayName="表2_3456891018" ref="A120:D122" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" name="字段名"/>
     <tableColumn id="2" name="说明"/>
@@ -1781,7 +1796,7 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="表2_34568919" displayName="表2_34568919" ref="A119:D121" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="表2_34568919" displayName="表2_34568919" ref="A128:D130" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" name="字段名"/>
     <tableColumn id="2" name="说明"/>
@@ -1816,8 +1831,20 @@
 </table>
 </file>
 
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表2_75" displayName="表2_75" ref="A46:D48" totalsRowShown="0">
+  <tableColumns count="4">
+    <tableColumn id="1" name="字段名"/>
+    <tableColumn id="2" name="说明"/>
+    <tableColumn id="3" name="类型"/>
+    <tableColumn id="4" name="约束"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表2_34" displayName="表2_34" ref="A142:D144" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表2_34" displayName="表2_34" ref="A151:D153" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" name="字段名"/>
     <tableColumn id="2" name="说明"/>
@@ -1829,7 +1856,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表2_3456" displayName="表2_3456" ref="A155:D157" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表2_3456" displayName="表2_3456" ref="A164:D166" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" name="字段名"/>
     <tableColumn id="2" name="说明"/>
@@ -1841,7 +1868,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="表2_3456891011" displayName="表2_3456891011" ref="A168:D169" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="表2_3456891011" displayName="表2_3456891011" ref="A177:D178" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" name="字段名"/>
     <tableColumn id="2" name="说明"/>
@@ -1853,7 +1880,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="表2_345689101112" displayName="表2_345689101112" ref="A177:D179" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="表2_345689101112" displayName="表2_345689101112" ref="A186:D188" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" name="字段名"/>
     <tableColumn id="2" name="说明"/>
@@ -1865,7 +1892,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="表2_34514" displayName="表2_34514" ref="A70:D72" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="表2_34514" displayName="表2_34514" ref="A79:D81" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" name="字段名"/>
     <tableColumn id="2" name="说明"/>
@@ -1877,7 +1904,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="表2_3451415" displayName="表2_3451415" ref="A79:D81" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="表2_3451415" displayName="表2_3451415" ref="A88:D90" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" name="字段名"/>
     <tableColumn id="2" name="说明"/>
@@ -1889,7 +1916,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="表2_345141516" displayName="表2_345141516" ref="A91:D93" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="表2_345141516" displayName="表2_345141516" ref="A100:D102" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" name="字段名"/>
     <tableColumn id="2" name="说明"/>
@@ -1901,7 +1928,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="表2_3451417" displayName="表2_3451417" ref="A103:D105" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="表2_3451417" displayName="表2_3451417" ref="A112:D114" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" name="字段名"/>
     <tableColumn id="2" name="说明"/>
@@ -2171,10 +2198,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I225"/>
+  <dimension ref="A1:I234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2656,400 +2683,384 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" ht="30" customHeight="1" spans="1:4">
-      <c r="A44" s="17" t="s">
+    <row r="42" ht="30" customHeight="1" spans="1:4">
+      <c r="A42" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="18"/>
-      <c r="D44" s="19"/>
-    </row>
+      <c r="C42" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" ht="14.25"/>
     <row r="45" ht="30" customHeight="1" spans="1:4">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="4"/>
+      <c r="B45" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="7"/>
+    </row>
+    <row r="46" ht="30" customHeight="1" spans="1:4">
+      <c r="A46" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B46" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C46" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D46" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="46" ht="30" customHeight="1" spans="1:4">
-      <c r="A46" s="10" t="s">
+    <row r="47" ht="30" customHeight="1" spans="1:4">
+      <c r="A47" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B47" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="11" t="s">
+      <c r="C47" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="11" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="47" ht="30" customHeight="1" spans="1:4">
-      <c r="A47" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="48" ht="30" customHeight="1" spans="1:4">
       <c r="A48" s="10" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="B48" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" ht="30" customHeight="1" spans="1:4">
+      <c r="A49" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C48" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" ht="30" customHeight="1" spans="1:9">
-      <c r="A49" s="12" t="s">
+      <c r="B49" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" ht="14.25"/>
+    <row r="53" ht="30" customHeight="1" spans="1:4">
+      <c r="A53" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" s="18"/>
+      <c r="D53" s="19"/>
+    </row>
+    <row r="54" ht="30" customHeight="1" spans="1:4">
+      <c r="A54" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" ht="30" customHeight="1" spans="1:4">
+      <c r="A55" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" ht="30" customHeight="1" spans="1:4">
+      <c r="A56" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" ht="30" customHeight="1" spans="1:4">
+      <c r="A57" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" ht="30" customHeight="1" spans="1:9">
+      <c r="A58" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B58" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I49" s="20"/>
-    </row>
-    <row r="50" ht="30" customHeight="1" spans="1:4">
-      <c r="A50" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B50" s="11" t="s">
+      <c r="C58" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I58" s="20"/>
+    </row>
+    <row r="59" ht="30" customHeight="1" spans="1:4">
+      <c r="A59" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" ht="30" customHeight="1" spans="1:4">
+      <c r="A60" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" ht="30" customHeight="1" spans="1:4">
+      <c r="A61" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" ht="30" customHeight="1" spans="1:4">
+      <c r="A62" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" ht="15" spans="8:8">
+      <c r="H64" s="10"/>
+    </row>
+    <row r="65" ht="30" customHeight="1" spans="1:4">
+      <c r="A65" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C50" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="51" ht="30" customHeight="1" spans="1:4">
-      <c r="A51" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B51" s="13" t="s">
+      <c r="B65" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65" s="6"/>
+      <c r="D65" s="7"/>
+    </row>
+    <row r="66" ht="30" customHeight="1" spans="1:4">
+      <c r="A66" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" ht="30" customHeight="1" spans="1:4">
+      <c r="A67" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" ht="30" customHeight="1" spans="1:4">
+      <c r="A68" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B68" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C51" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" ht="30" customHeight="1" spans="1:4">
-      <c r="A52" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B52" s="11" t="s">
+      <c r="C68" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" ht="30" customHeight="1" spans="1:4">
+      <c r="A69" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C52" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" ht="30" customHeight="1" spans="1:4">
-      <c r="A53" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" ht="15" spans="8:8">
-      <c r="H55" s="10"/>
-    </row>
-    <row r="56" ht="30" customHeight="1" spans="1:4">
-      <c r="A56" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="7"/>
-    </row>
-    <row r="57" ht="30" customHeight="1" spans="1:4">
-      <c r="A57" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" ht="30" customHeight="1" spans="1:4">
-      <c r="A58" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" ht="30" customHeight="1" spans="1:4">
-      <c r="A59" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" s="13" t="s">
+      <c r="B69" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" ht="30" customHeight="1" spans="1:4">
+      <c r="A70" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="13" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="60" ht="30" customHeight="1" spans="1:4">
-      <c r="A60" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="61" ht="30" customHeight="1" spans="1:4">
-      <c r="A61" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" ht="30" customHeight="1" spans="1:4">
-      <c r="A62" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="63" ht="30" customHeight="1" spans="1:4">
-      <c r="A63" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B63" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="64" ht="30" customHeight="1" spans="1:4">
-      <c r="A64" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B64" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="65" ht="30" customHeight="1" spans="1:4">
-      <c r="A65" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B65" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C65" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D65" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="66" ht="30" customHeight="1" spans="1:4">
-      <c r="A66" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="67" customHeight="1"/>
-    <row r="68" ht="14.25"/>
-    <row r="69" ht="30" customHeight="1" spans="1:4">
-      <c r="A69" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C69" s="6"/>
-      <c r="D69" s="21"/>
-    </row>
-    <row r="70" ht="30" customHeight="1" spans="1:4">
-      <c r="A70" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D70" s="22" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="71" ht="30" customHeight="1" spans="1:4">
       <c r="A71" s="11" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" ht="30" customHeight="1" spans="1:4">
-      <c r="A72" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B72" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C72" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D72" s="11" t="s">
-        <v>13</v>
+      <c r="A72" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="73" ht="30" customHeight="1" spans="1:4">
       <c r="A73" s="11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C73" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" ht="30" customHeight="1" spans="1:4">
       <c r="A74" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" ht="30" customHeight="1" spans="1:4">
+      <c r="A75" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B75" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B74" s="13" t="s">
+      <c r="C75" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C74" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D74" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="75" ht="30" customHeight="1" spans="1:7">
-      <c r="A75" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B75" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C75" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D75" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G75" s="13"/>
-    </row>
+    </row>
+    <row r="76" customHeight="1"/>
     <row r="77" ht="14.25"/>
     <row r="78" ht="30" customHeight="1" spans="1:4">
       <c r="A78" s="4" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="21"/>
@@ -3073,7 +3084,7 @@
         <v>6</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C80" s="11" t="s">
         <v>8</v>
@@ -3084,24 +3095,24 @@
     </row>
     <row r="81" ht="30" customHeight="1" spans="1:4">
       <c r="A81" s="11" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82" ht="30" customHeight="1" spans="1:4">
       <c r="A82" s="11" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C82" s="11" t="s">
         <v>12</v>
@@ -3112,133 +3123,123 @@
     </row>
     <row r="83" ht="30" customHeight="1" spans="1:4">
       <c r="A83" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B83" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B83" s="13" t="s">
+      <c r="C83" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" ht="30" customHeight="1" spans="1:7">
+      <c r="A84" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B84" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C83" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D83" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="84" ht="30" customHeight="1" spans="1:4">
-      <c r="A84" s="11" t="s">
+      <c r="C84" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B84" s="11" t="s">
+      <c r="D84" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C84" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D84" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="85" ht="30" customHeight="1" spans="1:4">
-      <c r="A85" s="11" t="s">
+      <c r="G84" s="13"/>
+    </row>
+    <row r="86" ht="14.25"/>
+    <row r="87" ht="30" customHeight="1" spans="1:4">
+      <c r="A87" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B87" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B85" s="11" t="s">
+      <c r="C87" s="6"/>
+      <c r="D87" s="21"/>
+    </row>
+    <row r="88" ht="30" customHeight="1" spans="1:4">
+      <c r="A88" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" ht="30" customHeight="1" spans="1:4">
+      <c r="A89" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" ht="30" customHeight="1" spans="1:4">
+      <c r="A90" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" ht="30" customHeight="1" spans="1:4">
+      <c r="A91" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B91" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C85" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D85" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="86" ht="30" customHeight="1" spans="1:4">
-      <c r="A86" s="12" t="s">
+      <c r="C91" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" ht="30" customHeight="1" spans="1:4">
+      <c r="A92" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="B86" s="13" t="s">
+      <c r="B92" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C86" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D86" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="87" ht="30" customHeight="1" spans="1:4">
-      <c r="A87" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B87" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C87" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D87" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="88" customHeight="1" spans="1:4">
-      <c r="A88" s="23"/>
-      <c r="B88" s="23"/>
-      <c r="C88" s="23"/>
-      <c r="D88" s="23"/>
-    </row>
-    <row r="89" customHeight="1" spans="1:4">
-      <c r="A89" s="23"/>
-      <c r="B89" s="23"/>
-      <c r="C89" s="23"/>
-      <c r="D89" s="23"/>
-    </row>
-    <row r="90" ht="30" customHeight="1" spans="1:4">
-      <c r="A90" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C90" s="6"/>
-      <c r="D90" s="21"/>
-    </row>
-    <row r="91" ht="30" customHeight="1" spans="1:4">
-      <c r="A91" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B91" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D91" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" ht="30" customHeight="1" spans="1:4">
-      <c r="A92" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B92" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C92" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D92" s="11" t="s">
-        <v>9</v>
+      <c r="C92" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" s="13" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="30" customHeight="1" spans="1:4">
       <c r="A93" s="11" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D93" s="11" t="s">
         <v>16</v>
@@ -3246,7 +3247,7 @@
     </row>
     <row r="94" ht="30" customHeight="1" spans="1:4">
       <c r="A94" s="11" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="B94" s="11" t="s">
         <v>101</v>
@@ -3259,14 +3260,14 @@
       </c>
     </row>
     <row r="95" ht="30" customHeight="1" spans="1:4">
-      <c r="A95" s="24" t="s">
+      <c r="A95" s="12" t="s">
         <v>102</v>
       </c>
       <c r="B95" s="13" t="s">
         <v>103</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D95" s="13" t="s">
         <v>16</v>
@@ -3286,110 +3287,121 @@
         <v>16</v>
       </c>
     </row>
-    <row r="97" ht="30" customHeight="1" spans="1:4">
-      <c r="A97" s="11" t="s">
+    <row r="97" customHeight="1" spans="1:4">
+      <c r="A97" s="23"/>
+      <c r="B97" s="23"/>
+      <c r="C97" s="23"/>
+      <c r="D97" s="23"/>
+    </row>
+    <row r="98" customHeight="1" spans="1:4">
+      <c r="A98" s="23"/>
+      <c r="B98" s="23"/>
+      <c r="C98" s="23"/>
+      <c r="D98" s="23"/>
+    </row>
+    <row r="99" ht="30" customHeight="1" spans="1:4">
+      <c r="A99" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B99" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B97" s="11" t="s">
+      <c r="C99" s="6"/>
+      <c r="D99" s="21"/>
+    </row>
+    <row r="100" ht="30" customHeight="1" spans="1:4">
+      <c r="A100" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D100" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" ht="30" customHeight="1" spans="1:4">
+      <c r="A101" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B101" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" ht="30" customHeight="1" spans="1:4">
+      <c r="A102" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" ht="30" customHeight="1" spans="1:4">
+      <c r="A103" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B103" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C97" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D97" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="98" ht="30" customHeight="1" spans="1:4">
-      <c r="A98" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B98" s="13" t="s">
+      <c r="C103" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" ht="30" customHeight="1" spans="1:4">
+      <c r="A104" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="C98" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D98" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="99" ht="30" customHeight="1" spans="1:4">
-      <c r="A99" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B99" s="11" t="s">
+      <c r="B104" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C99" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D99" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="101" ht="14.25"/>
-    <row r="102" ht="30" customHeight="1" spans="1:4">
-      <c r="A102" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C102" s="6"/>
-      <c r="D102" s="21"/>
-    </row>
-    <row r="103" ht="30" customHeight="1" spans="1:4">
-      <c r="A103" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C103" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D103" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="104" ht="30" customHeight="1" spans="1:4">
-      <c r="A104" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B104" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C104" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D104" s="11" t="s">
-        <v>9</v>
+      <c r="C104" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" s="13" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="30" customHeight="1" spans="1:4">
       <c r="A105" s="11" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="30" customHeight="1" spans="1:4">
       <c r="A106" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C106" s="14" t="s">
-        <v>8</v>
+        <v>113</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="D106" s="11" t="s">
         <v>16</v>
@@ -3397,10 +3409,10 @@
     </row>
     <row r="107" ht="30" customHeight="1" spans="1:4">
       <c r="A107" s="12" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C107" s="13" t="s">
         <v>12</v>
@@ -3409,574 +3421,574 @@
         <v>16</v>
       </c>
     </row>
-    <row r="109" ht="14.25"/>
-    <row r="110" ht="30" customHeight="1" spans="1:4">
-      <c r="A110" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C110" s="6"/>
-      <c r="D110" s="21"/>
-    </row>
+    <row r="108" ht="30" customHeight="1" spans="1:4">
+      <c r="A108" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" ht="14.25"/>
     <row r="111" ht="30" customHeight="1" spans="1:4">
-      <c r="A111" s="8" t="s">
+      <c r="A111" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C111" s="6"/>
+      <c r="D111" s="21"/>
+    </row>
+    <row r="112" ht="30" customHeight="1" spans="1:4">
+      <c r="A112" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B111" s="9" t="s">
+      <c r="B112" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C111" s="9" t="s">
+      <c r="C112" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D111" s="22" t="s">
+      <c r="D112" s="22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="112" ht="30" customHeight="1" spans="1:4">
-      <c r="A112" s="10" t="s">
+    <row r="113" ht="30" customHeight="1" spans="1:4">
+      <c r="A113" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B112" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C112" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D112" s="25" t="s">
+      <c r="B113" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="113" ht="30" customHeight="1" spans="1:4">
-      <c r="A113" s="10" t="s">
+    <row r="114" ht="30" customHeight="1" spans="1:4">
+      <c r="A114" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B113" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C113" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D113" s="25" t="s">
+      <c r="B114" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D114" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="114" ht="30" customHeight="1" spans="1:4">
-      <c r="A114" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="B114" s="24" t="s">
+    <row r="115" ht="30" customHeight="1" spans="1:4">
+      <c r="A115" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C114" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D114" s="27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="115" ht="30" customHeight="1" spans="1:4">
-      <c r="A115" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="B115" s="14" t="s">
-        <v>112</v>
+      <c r="B115" s="11" t="s">
+        <v>118</v>
       </c>
       <c r="C115" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D115" s="29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="117" ht="14.25"/>
-    <row r="118" ht="30" customHeight="1" spans="1:4">
-      <c r="A118" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C118" s="6"/>
-      <c r="D118" s="21"/>
-    </row>
+      <c r="D115" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" ht="30" customHeight="1" spans="1:4">
+      <c r="A116" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B116" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C116" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" ht="14.25"/>
     <row r="119" ht="30" customHeight="1" spans="1:4">
-      <c r="A119" s="8" t="s">
+      <c r="A119" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C119" s="6"/>
+      <c r="D119" s="21"/>
+    </row>
+    <row r="120" ht="30" customHeight="1" spans="1:4">
+      <c r="A120" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B119" s="9" t="s">
+      <c r="B120" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C119" s="9" t="s">
+      <c r="C120" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D119" s="22" t="s">
+      <c r="D120" s="22" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="120" ht="30" customHeight="1" spans="1:4">
-      <c r="A120" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B120" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C120" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D120" s="25" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="121" ht="30" customHeight="1" spans="1:4">
       <c r="A121" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D121" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" ht="30" customHeight="1" spans="1:4">
+      <c r="A122" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B121" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C121" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D121" s="25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="122" ht="30" customHeight="1" spans="1:4">
-      <c r="A122" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="B122" s="24" t="s">
+      <c r="B122" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C122" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D122" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" ht="30" customHeight="1" spans="1:4">
+      <c r="A123" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C123" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D123" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" ht="30" customHeight="1" spans="1:4">
+      <c r="A124" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="C122" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="D122" s="27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="123" ht="30" customHeight="1" spans="1:4">
-      <c r="A123" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="B123" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="C123" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D123" s="29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="124" ht="30" customHeight="1" spans="1:4">
-      <c r="A124" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B124" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C124" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D124" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="125" ht="30" customHeight="1" spans="1:4">
-      <c r="A125" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B125" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C125" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D125" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="126" ht="30" customHeight="1" spans="1:4">
-      <c r="A126" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B126" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C126" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D126" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="128" ht="14.25"/>
+      <c r="B124" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C124" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D124" s="29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" ht="14.25"/>
+    <row r="127" ht="30" customHeight="1" spans="1:4">
+      <c r="A127" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C127" s="6"/>
+      <c r="D127" s="21"/>
+    </row>
+    <row r="128" ht="30" customHeight="1" spans="1:4">
+      <c r="A128" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D128" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="129" ht="30" customHeight="1" spans="1:4">
-      <c r="A129" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C129" s="6"/>
-      <c r="D129" s="21"/>
+      <c r="A129" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B129" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C129" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D129" s="25" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="130" ht="30" customHeight="1" spans="1:4">
-      <c r="A130" s="8" t="s">
+      <c r="A130" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B130" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C130" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D130" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" ht="30" customHeight="1" spans="1:4">
+      <c r="A131" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="B131" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C131" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D131" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" ht="30" customHeight="1" spans="1:4">
+      <c r="A132" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="B132" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C132" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D132" s="29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" ht="30" customHeight="1" spans="1:4">
+      <c r="A133" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B133" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C133" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" ht="30" customHeight="1" spans="1:4">
+      <c r="A134" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B134" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C134" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D134" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" ht="30" customHeight="1" spans="1:4">
+      <c r="A135" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B135" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C135" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" ht="14.25"/>
+    <row r="138" ht="30" customHeight="1" spans="1:4">
+      <c r="A138" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C138" s="6"/>
+      <c r="D138" s="21"/>
+    </row>
+    <row r="139" ht="30" customHeight="1" spans="1:4">
+      <c r="A139" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B130" s="9" t="s">
+      <c r="B139" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C130" s="9" t="s">
+      <c r="C139" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D130" s="22" t="s">
+      <c r="D139" s="22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="131" ht="30" customHeight="1" spans="1:4">
-      <c r="A131" s="10" t="s">
+    <row r="140" ht="30" customHeight="1" spans="1:4">
+      <c r="A140" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B131" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C131" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D131" s="25" t="s">
+      <c r="B140" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C140" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D140" s="25" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="132" ht="30" customHeight="1" spans="1:4">
-      <c r="A132" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B132" s="11" t="s">
+    <row r="141" ht="30" customHeight="1" spans="1:4">
+      <c r="A141" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B141" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C132" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D132" s="25" t="s">
+      <c r="C141" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141" s="25" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="133" ht="30" customHeight="1" spans="1:4">
-      <c r="A133" s="12" t="s">
+    <row r="142" ht="30" customHeight="1" spans="1:4">
+      <c r="A142" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B133" s="13" t="s">
+      <c r="B142" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C133" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D133" s="27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="134" ht="30" customHeight="1" spans="1:4">
-      <c r="A134" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B134" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C134" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D134" s="29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="135" ht="30" customHeight="1" spans="1:4">
-      <c r="A135" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="B135" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C135" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D135" s="27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="136" ht="30" customHeight="1" spans="1:4">
-      <c r="A136" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B136" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C136" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D136" s="25" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="137" ht="30" customHeight="1" spans="1:4">
-      <c r="A137" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B137" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C137" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D137" s="27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="138" ht="30" customHeight="1" spans="1:4">
-      <c r="A138" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B138" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C138" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D138" s="29" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="140" ht="14.25"/>
-    <row r="141" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A141" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B141" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C141" s="6"/>
-      <c r="D141" s="21"/>
-    </row>
-    <row r="142" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A142" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B142" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C142" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D142" s="22" t="s">
-        <v>5</v>
+      <c r="C142" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142" s="27" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="143" ht="30" customHeight="1" spans="1:4">
       <c r="A143" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B143" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C143" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D143" s="29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144" ht="30" customHeight="1" spans="1:4">
+      <c r="A144" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B144" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C144" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D144" s="27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="145" ht="30" customHeight="1" spans="1:4">
+      <c r="A145" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B145" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C145" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D145" s="25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="146" ht="30" customHeight="1" spans="1:4">
+      <c r="A146" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B146" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C146" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D146" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147" ht="30" customHeight="1" spans="1:4">
+      <c r="A147" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B147" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C147" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D147" s="29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="149" ht="14.25"/>
+    <row r="150" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A150" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C150" s="6"/>
+      <c r="D150" s="21"/>
+    </row>
+    <row r="151" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A151" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C151" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D151" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" ht="30" customHeight="1" spans="1:4">
+      <c r="A152" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B143" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="C143" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D143" s="25" t="s">
+      <c r="B152" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C152" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D152" s="25" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="144" ht="30" customHeight="1" spans="1:4">
-      <c r="A144" s="10" t="s">
+    <row r="153" ht="30" customHeight="1" spans="1:4">
+      <c r="A153" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B144" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C144" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D144" s="25" t="s">
+      <c r="B153" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C153" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D153" s="25" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="145" ht="30" customHeight="1" spans="1:4">
-      <c r="A145" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B145" s="13" t="s">
+    <row r="154" ht="30" customHeight="1" spans="1:4">
+      <c r="A154" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B154" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C154" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D154" s="27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="155" ht="30" customHeight="1" spans="1:4">
+      <c r="A155" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B155" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C155" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D155" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="156" ht="30" customHeight="1" spans="1:4">
+      <c r="A156" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C145" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D145" s="27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="146" ht="30" customHeight="1" spans="1:4">
-      <c r="A146" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B146" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="C146" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D146" s="25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="147" ht="30" customHeight="1" spans="1:4">
-      <c r="A147" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B147" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C147" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D147" s="27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="148" ht="30" customHeight="1" spans="1:4">
-      <c r="A148" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B148" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C148" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D148" s="25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="149" ht="30" customHeight="1" spans="1:4">
-      <c r="A149" s="12" t="s">
+      <c r="B156" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B149" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C149" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D149" s="27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="150" ht="30" customHeight="1" spans="1:4">
-      <c r="A150" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B150" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C150" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D150" s="25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="151" ht="30" customHeight="1" spans="1:4">
-      <c r="A151" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B151" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C151" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D151" s="25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="153" ht="14.25"/>
-    <row r="154" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A154" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B154" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C154" s="6"/>
-      <c r="D154" s="21"/>
-    </row>
-    <row r="155" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A155" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B155" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C155" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D155" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="156" ht="30" customHeight="1" spans="1:4">
-      <c r="A156" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B156" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="C156" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D156" s="25" t="s">
-        <v>9</v>
+      <c r="C156" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D156" s="27" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="157" ht="30" customHeight="1" spans="1:4">
-      <c r="A157" s="10" t="s">
-        <v>129</v>
+      <c r="A157" s="11" t="s">
+        <v>70</v>
       </c>
       <c r="B157" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C157" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D157" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="158" ht="30" customHeight="1" spans="1:4">
+      <c r="A158" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C157" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D157" s="25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="158" ht="30" customHeight="1" spans="1:4">
-      <c r="A158" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="B158" s="24" t="s">
-        <v>130</v>
+      <c r="B158" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="C158" s="13" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D158" s="27" t="s">
-        <v>131</v>
+        <v>16</v>
       </c>
     </row>
     <row r="159" ht="30" customHeight="1" spans="1:4">
       <c r="A159" s="10" t="s">
-        <v>132</v>
+        <v>31</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>133</v>
+        <v>32</v>
       </c>
       <c r="C159" s="11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D159" s="25" t="s">
         <v>16</v>
@@ -3984,164 +3996,164 @@
     </row>
     <row r="160" ht="30" customHeight="1" spans="1:4">
       <c r="A160" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B160" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C160" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D160" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="162" ht="14.25"/>
+    <row r="163" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A163" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C163" s="6"/>
+      <c r="D163" s="21"/>
+    </row>
+    <row r="164" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A164" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B164" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C164" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D164" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" ht="30" customHeight="1" spans="1:4">
+      <c r="A165" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B165" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="B160" s="13" t="s">
+      <c r="C165" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D165" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166" ht="30" customHeight="1" spans="1:4">
+      <c r="A166" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C160" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D160" s="27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="161" ht="30" customHeight="1" spans="1:4">
-      <c r="A161" s="10" t="s">
+      <c r="B166" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C166" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D166" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="167" ht="30" customHeight="1" spans="1:4">
+      <c r="A167" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B167" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="B161" s="11" t="s">
+      <c r="C167" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D167" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="C161" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D161" s="25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="162" ht="30" customHeight="1" spans="1:4">
-      <c r="A162" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B162" s="13" t="s">
+    </row>
+    <row r="168" ht="30" customHeight="1" spans="1:4">
+      <c r="A168" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="C162" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D162" s="27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="163" ht="30" customHeight="1" spans="1:4">
-      <c r="A163" s="10" t="s">
+      <c r="B168" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B163" s="11" t="s">
+      <c r="C168" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D168" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="169" ht="30" customHeight="1" spans="1:4">
+      <c r="A169" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="C163" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D163" s="25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="164" ht="30" customHeight="1" spans="1:4">
-      <c r="A164" s="12" t="s">
+      <c r="B169" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C169" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D169" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="170" ht="30" customHeight="1" spans="1:4">
+      <c r="A170" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B170" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C170" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D170" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="171" ht="30" customHeight="1" spans="1:4">
+      <c r="A171" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B171" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C171" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D171" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="172" ht="30" customHeight="1" spans="1:4">
+      <c r="A172" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B172" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C172" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D172" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="173" ht="30" customHeight="1" spans="1:4">
+      <c r="A173" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B164" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C164" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D164" s="27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="166" ht="14.25"/>
-    <row r="167" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A167" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B167" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C167" s="6"/>
-      <c r="D167" s="21"/>
-    </row>
-    <row r="168" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A168" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B168" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C168" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D168" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="169" ht="30" customHeight="1" spans="1:4">
-      <c r="A169" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B169" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="C169" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D169" s="25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="170" ht="30" customHeight="1" spans="1:4">
-      <c r="A170" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="B170" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="C170" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D170" s="29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="171" ht="30" customHeight="1" spans="1:4">
-      <c r="A171" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="B171" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="C171" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D171" s="27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="172" ht="30" customHeight="1" spans="1:4">
-      <c r="A172" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B172" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="C172" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D172" s="29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="173" ht="30" customHeight="1" spans="1:4">
-      <c r="A173" s="26" t="s">
+      <c r="B173" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="B173" s="24" t="s">
-        <v>148</v>
-      </c>
       <c r="C173" s="13" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D173" s="27" t="s">
         <v>16</v>
@@ -4150,10 +4162,10 @@
     <row r="175" ht="14.25"/>
     <row r="176" ht="35.1" customHeight="1" spans="1:4">
       <c r="A176" s="4" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C176" s="6"/>
       <c r="D176" s="21"/>
@@ -4177,7 +4189,7 @@
         <v>6</v>
       </c>
       <c r="B178" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C178" s="11" t="s">
         <v>8</v>
@@ -4188,24 +4200,24 @@
     </row>
     <row r="179" ht="30" customHeight="1" spans="1:4">
       <c r="A179" s="28" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B179" s="14" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C179" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D179" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D179" s="29" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="180" ht="30" customHeight="1" spans="1:4">
       <c r="A180" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="B180" s="24" t="s">
         <v>151</v>
-      </c>
-      <c r="B180" s="24" t="s">
-        <v>152</v>
       </c>
       <c r="C180" s="13" t="s">
         <v>12</v>
@@ -4219,7 +4231,7 @@
         <v>50</v>
       </c>
       <c r="B181" s="14" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C181" s="14" t="s">
         <v>12</v>
@@ -4230,10 +4242,10 @@
     </row>
     <row r="182" ht="30" customHeight="1" spans="1:4">
       <c r="A182" s="26" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B182" s="24" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C182" s="13" t="s">
         <v>12</v>
@@ -4245,10 +4257,10 @@
     <row r="184" ht="14.25"/>
     <row r="185" ht="35.1" customHeight="1" spans="1:4">
       <c r="A185" s="4" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C185" s="6"/>
       <c r="D185" s="21"/>
@@ -4268,496 +4280,592 @@
       </c>
     </row>
     <row r="187" ht="30" customHeight="1" spans="1:4">
-      <c r="A187" s="12" t="s">
+      <c r="A187" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B187" s="13" t="s">
+      <c r="B187" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C187" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D187" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="188" ht="30" customHeight="1" spans="1:4">
+      <c r="A188" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="B188" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C188" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D188" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="189" ht="30" customHeight="1" spans="1:4">
+      <c r="A189" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B189" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C189" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D189" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="190" ht="30" customHeight="1" spans="1:4">
+      <c r="A190" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B190" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="C190" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D190" s="29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="191" ht="30" customHeight="1" spans="1:4">
+      <c r="A191" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="B191" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="C187" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D187" s="27" t="s">
+      <c r="C191" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D191" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="193" ht="14.25"/>
+    <row r="194" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A194" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C194" s="6"/>
+      <c r="D194" s="21"/>
+    </row>
+    <row r="195" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A195" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B195" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C195" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D195" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196" ht="30" customHeight="1" spans="1:4">
+      <c r="A196" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B196" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C196" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D196" s="27" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="188" ht="30" customHeight="1" spans="1:4">
-      <c r="A188" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="B188" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="C188" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D188" s="32" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="189" customHeight="1" spans="1:4">
-      <c r="A189" s="33"/>
-      <c r="B189" s="33"/>
-      <c r="C189" s="33"/>
-      <c r="D189" s="33"/>
-    </row>
-    <row r="190" ht="14.25" spans="1:4">
-      <c r="A190" s="33"/>
-      <c r="B190" s="33"/>
-      <c r="C190" s="33"/>
-      <c r="D190" s="33"/>
-    </row>
-    <row r="191" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A191" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="B191" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="C191" s="35"/>
-      <c r="D191" s="36"/>
-    </row>
-    <row r="192" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A192" s="8" t="s">
+    <row r="197" ht="30" customHeight="1" spans="1:4">
+      <c r="A197" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="B197" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="C197" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D197" s="32" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="198" customHeight="1" spans="1:4">
+      <c r="A198" s="33"/>
+      <c r="B198" s="33"/>
+      <c r="C198" s="33"/>
+      <c r="D198" s="33"/>
+    </row>
+    <row r="199" ht="14.25" spans="1:4">
+      <c r="A199" s="33"/>
+      <c r="B199" s="33"/>
+      <c r="C199" s="33"/>
+      <c r="D199" s="33"/>
+    </row>
+    <row r="200" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A200" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B200" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="C200" s="35"/>
+      <c r="D200" s="36"/>
+    </row>
+    <row r="201" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A201" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B192" s="9" t="s">
+      <c r="B201" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C192" s="9" t="s">
+      <c r="C201" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D192" s="22" t="s">
+      <c r="D201" s="22" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="193" ht="30" customHeight="1" spans="1:4">
-      <c r="A193" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B193" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="C193" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D193" s="27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="194" ht="30" customHeight="1" spans="1:4">
-      <c r="A194" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="B194" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="C194" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D194" s="32" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="195" ht="30" customHeight="1" spans="1:4">
-      <c r="A195" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="B195" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="C195" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D195" s="27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="196" customHeight="1" spans="1:4">
-      <c r="A196" s="33"/>
-      <c r="B196" s="33"/>
-      <c r="C196" s="33"/>
-      <c r="D196" s="33"/>
-    </row>
-    <row r="197" ht="14.25" spans="1:4">
-      <c r="A197" s="33"/>
-      <c r="B197" s="33"/>
-      <c r="C197" s="33"/>
-      <c r="D197" s="33"/>
-    </row>
-    <row r="198" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A198" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="B198" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="C198" s="35"/>
-      <c r="D198" s="36"/>
-    </row>
-    <row r="199" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A199" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B199" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C199" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D199" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="200" ht="30" customHeight="1" spans="1:4">
-      <c r="A200" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B200" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="C200" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D200" s="27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="201" ht="30" customHeight="1" spans="1:4">
-      <c r="A201" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="B201" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="C201" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D201" s="25" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="202" ht="30" customHeight="1" spans="1:4">
       <c r="A202" s="12" t="s">
-        <v>169</v>
+        <v>6</v>
       </c>
       <c r="B202" s="13" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C202" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D202" s="27" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="203" ht="30" customHeight="1" spans="1:4">
-      <c r="A203" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="B203" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="C203" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D203" s="25" t="s">
-        <v>173</v>
+      <c r="A203" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="B203" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="C203" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D203" s="32" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="204" ht="30" customHeight="1" spans="1:4">
       <c r="A204" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B204" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C204" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D204" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="205" customHeight="1" spans="1:4">
+      <c r="A205" s="33"/>
+      <c r="B205" s="33"/>
+      <c r="C205" s="33"/>
+      <c r="D205" s="33"/>
+    </row>
+    <row r="206" ht="14.25" spans="1:4">
+      <c r="A206" s="33"/>
+      <c r="B206" s="33"/>
+      <c r="C206" s="33"/>
+      <c r="D206" s="33"/>
+    </row>
+    <row r="207" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A207" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B207" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="C207" s="35"/>
+      <c r="D207" s="36"/>
+    </row>
+    <row r="208" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A208" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B208" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C208" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D208" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209" ht="30" customHeight="1" spans="1:4">
+      <c r="A209" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B209" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C209" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D209" s="27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="210" ht="30" customHeight="1" spans="1:4">
+      <c r="A210" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B210" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C210" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D210" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="211" ht="30" customHeight="1" spans="1:4">
+      <c r="A211" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B211" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C211" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D211" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="212" ht="30" customHeight="1" spans="1:4">
+      <c r="A212" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B212" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="C212" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D212" s="25" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="213" ht="30" customHeight="1" spans="1:4">
+      <c r="A213" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B204" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="C204" s="13" t="s">
+      <c r="B213" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C213" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D204" s="27" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="205" ht="30" customHeight="1" spans="1:4">
-      <c r="A205" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="B205" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="C205" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D205" s="25" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="206" ht="14.25" customHeight="1" spans="1:4">
-      <c r="A206" s="37"/>
-      <c r="B206" s="37"/>
-      <c r="C206" s="37"/>
-      <c r="D206" s="37"/>
-    </row>
-    <row r="207" ht="14.25" spans="1:4">
-      <c r="A207" s="33"/>
-      <c r="B207" s="33"/>
-      <c r="C207" s="33"/>
-      <c r="D207" s="33"/>
-    </row>
-    <row r="208" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A208" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="B208" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="C208" s="35"/>
-      <c r="D208" s="36"/>
-    </row>
-    <row r="209" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A209" s="8" t="s">
+      <c r="D213" s="27" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="214" ht="30" customHeight="1" spans="1:4">
+      <c r="A214" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="B214" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C214" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D214" s="25" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="215" ht="14.25" customHeight="1" spans="1:4">
+      <c r="A215" s="37"/>
+      <c r="B215" s="37"/>
+      <c r="C215" s="37"/>
+      <c r="D215" s="37"/>
+    </row>
+    <row r="216" ht="14.25" spans="1:4">
+      <c r="A216" s="33"/>
+      <c r="B216" s="33"/>
+      <c r="C216" s="33"/>
+      <c r="D216" s="33"/>
+    </row>
+    <row r="217" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A217" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B217" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="C217" s="35"/>
+      <c r="D217" s="36"/>
+    </row>
+    <row r="218" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A218" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B209" s="9" t="s">
+      <c r="B218" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C209" s="9" t="s">
+      <c r="C218" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D209" s="22" t="s">
+      <c r="D218" s="22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="210" ht="30" customHeight="1" spans="1:4">
-      <c r="A210" s="12" t="s">
+    <row r="219" ht="30" customHeight="1" spans="1:4">
+      <c r="A219" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B210" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="C210" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D210" s="27" t="s">
+      <c r="B219" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C219" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D219" s="27" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="211" ht="30" customHeight="1" spans="1:4">
-      <c r="A211" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B211" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="C211" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D211" s="25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="212" ht="30" customHeight="1" spans="1:4">
-      <c r="A212" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B212" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="C212" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D212" s="27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="213" ht="30" customHeight="1" spans="1:4">
-      <c r="A213" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B213" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="C213" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D213" s="25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="214" ht="30" customHeight="1" spans="1:4">
-      <c r="A214" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="B214" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="C214" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D214" s="27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="215" ht="30" customHeight="1" spans="1:4">
-      <c r="A215" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="B215" s="11" t="s">
+    <row r="220" ht="30" customHeight="1" spans="1:4">
+      <c r="A220" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B220" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="C215" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D215" s="25" t="s">
+      <c r="C220" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D220" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="221" ht="30" customHeight="1" spans="1:4">
+      <c r="A221" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B221" s="13" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="216" ht="30" customHeight="1" spans="1:4">
-      <c r="A216" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B216" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="C216" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D216" s="27" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="217" customHeight="1" spans="1:4">
-      <c r="A217" s="33"/>
-      <c r="B217" s="33"/>
-      <c r="C217" s="33"/>
-      <c r="D217" s="33"/>
-    </row>
-    <row r="218" ht="14.25" customHeight="1" spans="1:4">
-      <c r="A218" s="33"/>
-      <c r="B218" s="33"/>
-      <c r="C218" s="33"/>
-      <c r="D218" s="33"/>
-    </row>
-    <row r="219" ht="30" customHeight="1" spans="1:4">
-      <c r="A219" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="B219" s="35" t="s">
-        <v>189</v>
-      </c>
-      <c r="C219" s="35"/>
-      <c r="D219" s="36"/>
-    </row>
-    <row r="220" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A220" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B220" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C220" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D220" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="221" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A221" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B221" s="13" t="s">
-        <v>190</v>
-      </c>
       <c r="C221" s="13" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D221" s="27" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="222" ht="30" customHeight="1" spans="1:4">
       <c r="A222" s="10" t="s">
-        <v>191</v>
+        <v>37</v>
       </c>
       <c r="B222" s="11" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="C222" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D222" s="25" t="s">
-        <v>186</v>
+        <v>16</v>
       </c>
     </row>
     <row r="223" ht="30" customHeight="1" spans="1:4">
       <c r="A223" s="12" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B223" s="13" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C223" s="13" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D223" s="27" t="s">
-        <v>186</v>
+        <v>16</v>
       </c>
     </row>
     <row r="224" ht="30" customHeight="1" spans="1:4">
       <c r="A224" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B224" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C224" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D224" s="25" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="225" ht="30" customHeight="1" spans="1:4">
+      <c r="A225" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B225" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C225" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D225" s="27" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="226" customHeight="1" spans="1:4">
+      <c r="A226" s="33"/>
+      <c r="B226" s="33"/>
+      <c r="C226" s="33"/>
+      <c r="D226" s="33"/>
+    </row>
+    <row r="227" ht="14.25" customHeight="1" spans="1:4">
+      <c r="A227" s="33"/>
+      <c r="B227" s="33"/>
+      <c r="C227" s="33"/>
+      <c r="D227" s="33"/>
+    </row>
+    <row r="228" ht="30" customHeight="1" spans="1:4">
+      <c r="A228" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B228" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="C228" s="35"/>
+      <c r="D228" s="36"/>
+    </row>
+    <row r="229" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A229" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B229" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C229" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D229" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="230" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A230" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B230" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="B224" s="11" t="s">
+      <c r="C230" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D230" s="27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="231" ht="30" customHeight="1" spans="1:4">
+      <c r="A231" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C224" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D224" s="25" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="225" customHeight="1" spans="1:4">
-      <c r="A225" s="33"/>
-      <c r="B225" s="33"/>
-      <c r="C225" s="33"/>
-      <c r="D225" s="33"/>
+      <c r="B231" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C231" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D231" s="25" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="232" ht="30" customHeight="1" spans="1:4">
+      <c r="A232" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B232" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="C232" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D232" s="27" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="233" ht="30" customHeight="1" spans="1:4">
+      <c r="A233" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B233" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="C233" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D233" s="25" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="234" customHeight="1" spans="1:4">
+      <c r="A234" s="33"/>
+      <c r="B234" s="33"/>
+      <c r="C234" s="33"/>
+      <c r="D234" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="23">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B65:D65"/>
     <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B102:D102"/>
-    <mergeCell ref="B110:D110"/>
-    <mergeCell ref="B118:D118"/>
-    <mergeCell ref="B129:D129"/>
-    <mergeCell ref="B141:D141"/>
-    <mergeCell ref="B154:D154"/>
-    <mergeCell ref="B167:D167"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="B111:D111"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B127:D127"/>
+    <mergeCell ref="B138:D138"/>
+    <mergeCell ref="B150:D150"/>
+    <mergeCell ref="B163:D163"/>
     <mergeCell ref="B176:D176"/>
     <mergeCell ref="B185:D185"/>
-    <mergeCell ref="B191:D191"/>
-    <mergeCell ref="B198:D198"/>
-    <mergeCell ref="B208:D208"/>
-    <mergeCell ref="B219:D219"/>
+    <mergeCell ref="B194:D194"/>
+    <mergeCell ref="B200:D200"/>
+    <mergeCell ref="B207:D207"/>
+    <mergeCell ref="B217:D217"/>
+    <mergeCell ref="B228:D228"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A95" r:id="rId14" display="sponsor" tooltip="file:///D:\Dict\7.2.0.0511\resultui\dict\?keyword=sponsor"/>
-    <hyperlink ref="A97" r:id="rId15" display="principal" tooltip="file:///D:\Dict\7.2.0.0511\resultui\dict\?keyword=principal"/>
+    <hyperlink ref="A104" r:id="rId15" display="sponsor" tooltip="file:///D:\Dict\7.2.0.0511\resultui\dict\?keyword=sponsor"/>
+    <hyperlink ref="A106" r:id="rId16" display="principal" tooltip="file:///D:\Dict\7.2.0.0511\resultui\dict\?keyword=principal"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
-  <tableParts count="13">
+  <tableParts count="14">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -4771,6 +4879,7 @@
     <tablePart r:id="rId11"/>
     <tablePart r:id="rId12"/>
     <tablePart r:id="rId13"/>
+    <tablePart r:id="rId14"/>
   </tableParts>
 </worksheet>
 </file>

--- a/docs/开场数据字典.xlsx
+++ b/docs/开场数据字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950"/>
+    <workbookView windowWidth="9210" windowHeight="6555"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237">
   <si>
     <t>开场数据字典</t>
   </si>
@@ -230,13 +230,339 @@
     <t>固话</t>
   </si>
   <si>
-    <t>单位信息表 (teamDetail)</t>
-  </si>
-  <si>
-    <t>单位ID</t>
+    <t>企业基本信息表 (siteBase)</t>
+  </si>
+  <si>
+    <t>企业详情ID</t>
+  </si>
+  <si>
+    <t>mid</t>
+  </si>
+  <si>
+    <t>企业ID</t>
+  </si>
+  <si>
+    <t>siteNumber</t>
+  </si>
+  <si>
+    <t>会场数量</t>
+  </si>
+  <si>
+    <t>guestRoom</t>
+  </si>
+  <si>
+    <t>客房数量</t>
+  </si>
+  <si>
+    <t>非空,默认为 0,</t>
+  </si>
+  <si>
+    <t>maxPerson</t>
+  </si>
+  <si>
+    <t>最多容纳人数</t>
+  </si>
+  <si>
+    <t>maxArea</t>
+  </si>
+  <si>
+    <t>会场面积</t>
+  </si>
+  <si>
+    <t>openTime</t>
+  </si>
+  <si>
+    <t>开业时间</t>
+  </si>
+  <si>
+    <t>fitmentTime</t>
+  </si>
+  <si>
+    <t>最近装修时间</t>
+  </si>
+  <si>
+    <t>carNumber</t>
+  </si>
+  <si>
+    <t>停车位</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>配套服务</t>
+  </si>
+  <si>
+    <t>会场基本信息表 (meeting)</t>
+  </si>
+  <si>
+    <t>会场ID</t>
+  </si>
+  <si>
+    <t>meetArea</t>
+  </si>
+  <si>
+    <t>meetPerson</t>
+  </si>
+  <si>
+    <t>容纳人数</t>
+  </si>
+  <si>
+    <t>meetPrice</t>
+  </si>
+  <si>
+    <t>单价</t>
+  </si>
+  <si>
+    <t>非空、精确到小数点后两位(如: 3000.00)</t>
+  </si>
+  <si>
+    <t>meetimg</t>
+  </si>
+  <si>
+    <t>照片</t>
+  </si>
+  <si>
+    <t>客房信息表 (guest)</t>
+  </si>
+  <si>
+    <t>客房ID</t>
+  </si>
+  <si>
+    <t>guestType</t>
+  </si>
+  <si>
+    <t>分类</t>
+  </si>
+  <si>
+    <t>guestPrice</t>
+  </si>
+  <si>
+    <t>价格</t>
+  </si>
+  <si>
+    <t>guestImg</t>
+  </si>
+  <si>
+    <t>茶歇信息表 (rest)</t>
+  </si>
+  <si>
+    <t>茶歇ID</t>
+  </si>
+  <si>
+    <t>restType</t>
+  </si>
+  <si>
+    <t>restPrice</t>
+  </si>
+  <si>
+    <t>restImg</t>
+  </si>
+  <si>
+    <t>订单表 (orders)</t>
+  </si>
+  <si>
+    <t>订单ID</t>
+  </si>
+  <si>
+    <t>ordernum</t>
+  </si>
+  <si>
+    <t>订单编号</t>
+  </si>
+  <si>
+    <t>createtime</t>
+  </si>
+  <si>
+    <t>下单时间</t>
+  </si>
+  <si>
+    <t>订单状态</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>iny</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int</t>
+    </r>
+  </si>
+  <si>
+    <t>默认：0 未审核、1 租赁中、2 已成交</t>
+  </si>
+  <si>
+    <t>订单详情表 (ordersDetail)</t>
+  </si>
+  <si>
+    <t>商家</t>
+  </si>
+  <si>
+    <t>goods</t>
+  </si>
+  <si>
+    <t>会场</t>
+  </si>
+  <si>
+    <t>period</t>
+  </si>
+  <si>
+    <t>档期</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>总计</t>
+  </si>
+  <si>
+    <t>活动表 (activity)</t>
+  </si>
+  <si>
+    <t>活动名称</t>
+  </si>
+  <si>
+    <t>sponsor</t>
+  </si>
+  <si>
+    <t>主办方</t>
+  </si>
+  <si>
+    <t>peonum</t>
+  </si>
+  <si>
+    <t>参加人数</t>
+  </si>
+  <si>
+    <t>principal</t>
+  </si>
+  <si>
+    <t>负责人</t>
+  </si>
+  <si>
+    <t>联系方式</t>
+  </si>
+  <si>
+    <t>联系地址</t>
+  </si>
+  <si>
+    <t>足迹表 (track)</t>
+  </si>
+  <si>
+    <t>cid</t>
+  </si>
+  <si>
+    <t>场地ID</t>
+  </si>
+  <si>
+    <t>场地</t>
+  </si>
+  <si>
+    <t>收藏表 (favorite)</t>
+  </si>
+  <si>
+    <t>收藏ID</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>id</t>
+    </r>
+  </si>
+  <si>
+    <t>商家ID</t>
+  </si>
+  <si>
+    <t>购物车表 (shopCart)</t>
+  </si>
+  <si>
+    <t>购物车ID</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nt</t>
+    </r>
+  </si>
+  <si>
+    <t>加盟商表 (shopKeepers)</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>0：禁用；1：启用</t>
+  </si>
+  <si>
+    <t>updated_at</t>
+  </si>
+  <si>
+    <t>修改时间</t>
+  </si>
+  <si>
+    <t>非空、默认：同created_at</t>
+  </si>
+  <si>
+    <t>加盟商详情表(shopDetails)</t>
+  </si>
+  <si>
+    <t>企业用户ID</t>
   </si>
   <si>
     <t>企业名称</t>
+  </si>
+  <si>
+    <t>固定电话</t>
   </si>
   <si>
     <r>
@@ -268,212 +594,6 @@
     <t>营业执照</t>
   </si>
   <si>
-    <t>updated_at</t>
-  </si>
-  <si>
-    <t>修改时间</t>
-  </si>
-  <si>
-    <t>非空、默认：同created_at</t>
-  </si>
-  <si>
-    <t>订单表 (orders)</t>
-  </si>
-  <si>
-    <t>订单ID</t>
-  </si>
-  <si>
-    <t>ordernum</t>
-  </si>
-  <si>
-    <t>订单编号</t>
-  </si>
-  <si>
-    <t>createtime</t>
-  </si>
-  <si>
-    <t>下单时间</t>
-  </si>
-  <si>
-    <t>订单状态</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>iny</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>int</t>
-    </r>
-  </si>
-  <si>
-    <t>默认：0 未审核、1 租赁中、2 已成交</t>
-  </si>
-  <si>
-    <t>订单详情表 (ordersDetail)</t>
-  </si>
-  <si>
-    <t>商家</t>
-  </si>
-  <si>
-    <t>goods</t>
-  </si>
-  <si>
-    <t>会场</t>
-  </si>
-  <si>
-    <t>period</t>
-  </si>
-  <si>
-    <t>档期</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>单价</t>
-  </si>
-  <si>
-    <t>num</t>
-  </si>
-  <si>
-    <t>数量</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>总计</t>
-  </si>
-  <si>
-    <t>活动表 (activity)</t>
-  </si>
-  <si>
-    <t>活动名称</t>
-  </si>
-  <si>
-    <t>sponsor</t>
-  </si>
-  <si>
-    <t>主办方</t>
-  </si>
-  <si>
-    <t>peonum</t>
-  </si>
-  <si>
-    <t>参加人数</t>
-  </si>
-  <si>
-    <t>principal</t>
-  </si>
-  <si>
-    <t>负责人</t>
-  </si>
-  <si>
-    <t>联系方式</t>
-  </si>
-  <si>
-    <t>联系地址</t>
-  </si>
-  <si>
-    <t>足迹表 (track)</t>
-  </si>
-  <si>
-    <t>cid</t>
-  </si>
-  <si>
-    <t>场地ID</t>
-  </si>
-  <si>
-    <t>场地</t>
-  </si>
-  <si>
-    <t>收藏表 (favorite)</t>
-  </si>
-  <si>
-    <t>收藏ID</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>g</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>id</t>
-    </r>
-  </si>
-  <si>
-    <t>商家ID</t>
-  </si>
-  <si>
-    <t>购物车表 (shopCart)</t>
-  </si>
-  <si>
-    <t>购物车ID</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>nt</t>
-    </r>
-  </si>
-  <si>
-    <t>加盟商表 (shopKeepers)</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>0：禁用；1：启用</t>
-  </si>
-  <si>
-    <t>加盟商详情表(shopDetails)</t>
-  </si>
-  <si>
-    <t>企业用户ID</t>
-  </si>
-  <si>
-    <t>固定电话</t>
-  </si>
-  <si>
     <t>发票信息表 (invoices)</t>
   </si>
   <si>
@@ -704,9 +824,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -753,15 +873,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -782,9 +901,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -798,14 +916,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -813,16 +923,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -833,14 +936,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -867,6 +962,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -874,8 +985,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -883,7 +995,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -934,19 +1054,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -958,7 +1066,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -970,31 +1090,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1012,7 +1120,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1024,19 +1150,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1048,13 +1162,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1072,13 +1198,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1088,26 +1226,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1268,6 +1388,19 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -1336,6 +1469,78 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1357,45 +1562,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1404,39 +1570,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1445,10 +1578,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1457,31 +1590,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1490,104 +1623,104 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1651,10 +1784,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="43" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="43" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1663,19 +1799,19 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1684,17 +1820,17 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="43" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="43" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="43" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="43" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1752,7 +1888,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -1769,7 +1905,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="表2_3456891018" displayName="表2_3456891018" ref="A111:D113" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="表2_3456891018" displayName="表2_3456891018" ref="A143:D145" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" name="字段名"/>
     <tableColumn id="2" name="说明"/>
@@ -1781,7 +1917,7 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="表2_34568919" displayName="表2_34568919" ref="A119:D121" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="表2_34568919" displayName="表2_34568919" ref="A151:D153" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" name="字段名"/>
     <tableColumn id="2" name="说明"/>
@@ -1817,7 +1953,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表2_34" displayName="表2_34" ref="A142:D144" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表2_34" displayName="表2_34" ref="A174:D176" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" name="字段名"/>
     <tableColumn id="2" name="说明"/>
@@ -1829,7 +1965,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表2_3456" displayName="表2_3456" ref="A155:D157" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表2_3456" displayName="表2_3456" ref="A187:D189" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" name="字段名"/>
     <tableColumn id="2" name="说明"/>
@@ -1841,7 +1977,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="表2_3456891011" displayName="表2_3456891011" ref="A168:D169" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="表2_3456891011" displayName="表2_3456891011" ref="A200:D201" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" name="字段名"/>
     <tableColumn id="2" name="说明"/>
@@ -1853,7 +1989,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="表2_345689101112" displayName="表2_345689101112" ref="A177:D179" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="表2_345689101112" displayName="表2_345689101112" ref="A209:D211" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" name="字段名"/>
     <tableColumn id="2" name="说明"/>
@@ -1865,7 +2001,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="表2_34514" displayName="表2_34514" ref="A70:D72" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="表2_34514" displayName="表2_34514" ref="A102:D104" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" name="字段名"/>
     <tableColumn id="2" name="说明"/>
@@ -1877,7 +2013,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="表2_3451415" displayName="表2_3451415" ref="A79:D81" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="表2_3451415" displayName="表2_3451415" ref="A111:D113" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" name="字段名"/>
     <tableColumn id="2" name="说明"/>
@@ -1889,7 +2025,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="表2_345141516" displayName="表2_345141516" ref="A91:D93" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="表2_345141516" displayName="表2_345141516" ref="A123:D125" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" name="字段名"/>
     <tableColumn id="2" name="说明"/>
@@ -1901,7 +2037,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="表2_3451417" displayName="表2_3451417" ref="A103:D105" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="表2_3451417" displayName="表2_3451417" ref="A135:D137" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" name="字段名"/>
     <tableColumn id="2" name="说明"/>
@@ -2171,10 +2307,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I225"/>
+  <dimension ref="A1:I257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2656,6 +2792,7 @@
         <v>54</v>
       </c>
     </row>
+    <row r="43" ht="14.25"/>
     <row r="44" ht="30" customHeight="1" spans="1:4">
       <c r="A44" s="17" t="s">
         <v>57</v>
@@ -2836,10 +2973,10 @@
     </row>
     <row r="59" ht="30" customHeight="1" spans="1:4">
       <c r="A59" s="12" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C59" s="13" t="s">
         <v>8</v>
@@ -2850,13 +2987,13 @@
     </row>
     <row r="60" ht="30" customHeight="1" spans="1:4">
       <c r="A60" s="11" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D60" s="11" t="s">
         <v>16</v>
@@ -2864,69 +3001,69 @@
     </row>
     <row r="61" ht="30" customHeight="1" spans="1:4">
       <c r="A61" s="12" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" ht="30" customHeight="1" spans="1:4">
       <c r="A62" s="11" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="30" customHeight="1" spans="1:4">
       <c r="A63" s="12" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="30" customHeight="1" spans="1:4">
       <c r="A64" s="11" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C64" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="30" customHeight="1" spans="1:4">
       <c r="A65" s="12" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D65" s="13" t="s">
         <v>16</v>
@@ -2934,202 +3071,200 @@
     </row>
     <row r="66" ht="30" customHeight="1" spans="1:4">
       <c r="A66" s="11" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C66" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="67" customHeight="1"/>
-    <row r="68" ht="14.25"/>
-    <row r="69" ht="30" customHeight="1" spans="1:4">
-      <c r="A69" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" ht="30" customHeight="1" spans="1:4">
+      <c r="A67" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="13"/>
+    </row>
+    <row r="68" customHeight="1"/>
+    <row r="69" customFormat="1" customHeight="1"/>
+    <row r="70" ht="30" customHeight="1" spans="1:4">
+      <c r="A70" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B69" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C69" s="6"/>
-      <c r="D69" s="21"/>
-    </row>
-    <row r="70" ht="30" customHeight="1" spans="1:4">
-      <c r="A70" s="8" t="s">
+      <c r="B70" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C70" s="6"/>
+      <c r="D70" s="7"/>
+    </row>
+    <row r="71" ht="30" customHeight="1" spans="1:4">
+      <c r="A71" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B71" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C71" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D70" s="22" t="s">
+      <c r="D71" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="71" ht="30" customHeight="1" spans="1:4">
-      <c r="A71" s="11" t="s">
+    <row r="72" ht="30" customHeight="1" spans="1:4">
+      <c r="A72" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B71" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C71" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D71" s="11" t="s">
+      <c r="B72" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="72" ht="30" customHeight="1" spans="1:4">
-      <c r="A72" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B72" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C72" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D72" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="73" ht="30" customHeight="1" spans="1:4">
-      <c r="A73" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B73" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C73" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73" s="11" t="s">
+      <c r="A73" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="74" ht="30" customHeight="1" spans="1:4">
-      <c r="A74" s="12" t="s">
+      <c r="A74" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B74" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B74" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C74" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D74" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="75" ht="30" customHeight="1" spans="1:7">
-      <c r="A75" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B75" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C75" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D75" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G75" s="13"/>
-    </row>
-    <row r="77" ht="14.25"/>
-    <row r="78" ht="30" customHeight="1" spans="1:4">
-      <c r="A78" s="4" t="s">
+      <c r="C74" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" ht="30" customHeight="1" spans="1:4">
+      <c r="A75" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" ht="30" customHeight="1" spans="1:4">
+      <c r="A76" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" ht="30" customHeight="1" spans="1:4">
+      <c r="A77" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" customFormat="1"/>
+    <row r="79" customFormat="1" ht="14.25"/>
+    <row r="80" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A80" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B78" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C78" s="6"/>
-      <c r="D78" s="21"/>
-    </row>
-    <row r="79" ht="30" customHeight="1" spans="1:4">
-      <c r="A79" s="8" t="s">
+      <c r="B80" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C80" s="6"/>
+      <c r="D80" s="22"/>
+    </row>
+    <row r="81" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A81" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B81" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C79" s="9" t="s">
+      <c r="C81" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D79" s="22" t="s">
+      <c r="D81" s="23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="80" ht="30" customHeight="1" spans="1:4">
-      <c r="A80" s="11" t="s">
+    <row r="82" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A82" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B80" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C80" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D80" s="11" t="s">
+      <c r="B82" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="81" ht="30" customHeight="1" spans="1:4">
-      <c r="A81" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B81" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C81" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D81" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="82" ht="30" customHeight="1" spans="1:4">
-      <c r="A82" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B82" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C82" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D82" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="83" ht="30" customHeight="1" spans="1:4">
+    <row r="83" customFormat="1" ht="30" customHeight="1" spans="1:4">
       <c r="A83" s="12" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D83" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="84" ht="30" customHeight="1" spans="1:4">
-      <c r="A84" s="11" t="s">
-        <v>92</v>
+    <row r="84" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A84" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="C84" s="11" t="s">
         <v>12</v>
@@ -3138,276 +3273,229 @@
         <v>16</v>
       </c>
     </row>
-    <row r="85" ht="30" customHeight="1" spans="1:4">
-      <c r="A85" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B85" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C85" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D85" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="86" ht="30" customHeight="1" spans="1:4">
-      <c r="A86" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B86" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C86" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D86" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="87" ht="30" customHeight="1" spans="1:4">
-      <c r="A87" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B87" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C87" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D87" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="88" customHeight="1" spans="1:4">
-      <c r="A88" s="23"/>
-      <c r="B88" s="23"/>
-      <c r="C88" s="23"/>
-      <c r="D88" s="23"/>
-    </row>
-    <row r="89" customHeight="1" spans="1:4">
-      <c r="A89" s="23"/>
-      <c r="B89" s="23"/>
-      <c r="C89" s="23"/>
-      <c r="D89" s="23"/>
-    </row>
-    <row r="90" ht="30" customHeight="1" spans="1:4">
-      <c r="A90" s="4" t="s">
+    <row r="85" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A85" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B85" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A86" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" customFormat="1"/>
+    <row r="88" customFormat="1" ht="14.25"/>
+    <row r="89" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A89" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B90" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C90" s="6"/>
-      <c r="D90" s="21"/>
-    </row>
-    <row r="91" ht="30" customHeight="1" spans="1:4">
-      <c r="A91" s="8" t="s">
+      <c r="B89" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C89" s="6"/>
+      <c r="D89" s="22"/>
+    </row>
+    <row r="90" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A90" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B91" s="9" t="s">
+      <c r="B90" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C91" s="9" t="s">
+      <c r="C90" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D91" s="22" t="s">
+      <c r="D90" s="23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="92" ht="30" customHeight="1" spans="1:4">
-      <c r="A92" s="11" t="s">
+    <row r="91" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A91" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B92" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C92" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D92" s="11" t="s">
+      <c r="B91" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="93" ht="30" customHeight="1" spans="1:4">
-      <c r="A93" s="11" t="s">
-        <v>42</v>
+    <row r="92" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A92" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B92" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A93" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D93" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="94" ht="30" customHeight="1" spans="1:4">
-      <c r="A94" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B94" s="11" t="s">
+    <row r="94" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A94" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B94" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A95" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B95" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C94" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D94" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="95" ht="30" customHeight="1" spans="1:4">
-      <c r="A95" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="B95" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C95" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D95" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="96" ht="30" customHeight="1" spans="1:4">
-      <c r="A96" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B96" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C96" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D96" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="97" ht="30" customHeight="1" spans="1:4">
-      <c r="A97" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="B97" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C97" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D97" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="98" ht="30" customHeight="1" spans="1:4">
-      <c r="A98" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B98" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C98" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D98" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="99" ht="30" customHeight="1" spans="1:4">
-      <c r="A99" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B99" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C99" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D99" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="101" ht="14.25"/>
+      <c r="C95" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" customFormat="1"/>
+    <row r="97" customFormat="1"/>
+    <row r="98" customFormat="1"/>
+    <row r="99" customFormat="1"/>
+    <row r="100" customFormat="1" ht="14.25"/>
+    <row r="101" ht="30" customHeight="1" spans="1:4">
+      <c r="A101" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C101" s="6"/>
+      <c r="D101" s="22"/>
+    </row>
     <row r="102" ht="30" customHeight="1" spans="1:4">
-      <c r="A102" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C102" s="6"/>
-      <c r="D102" s="21"/>
+      <c r="A102" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D102" s="23" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="103" ht="30" customHeight="1" spans="1:4">
-      <c r="A103" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C103" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D103" s="22" t="s">
-        <v>5</v>
+      <c r="A103" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="104" ht="30" customHeight="1" spans="1:4">
       <c r="A104" s="11" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="C104" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="105" ht="30" customHeight="1" spans="1:4">
       <c r="A105" s="11" t="s">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="30" customHeight="1" spans="1:4">
-      <c r="A106" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="B106" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C106" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D106" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="107" ht="30" customHeight="1" spans="1:4">
-      <c r="A107" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B107" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C107" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D107" s="13" t="s">
-        <v>16</v>
-      </c>
+      <c r="A106" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B106" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C106" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" ht="30" customHeight="1" spans="1:7">
+      <c r="A107" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D107" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G107" s="13"/>
     </row>
     <row r="109" ht="14.25"/>
     <row r="110" ht="30" customHeight="1" spans="1:4">
@@ -3415,10 +3503,10 @@
         <v>57</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="C110" s="6"/>
-      <c r="D110" s="21"/>
+      <c r="D110" s="22"/>
     </row>
     <row r="111" ht="30" customHeight="1" spans="1:4">
       <c r="A111" s="8" t="s">
@@ -3430,12 +3518,12 @@
       <c r="C111" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D111" s="22" t="s">
+      <c r="D111" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="112" ht="30" customHeight="1" spans="1:4">
-      <c r="A112" s="10" t="s">
+      <c r="A112" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B112" s="11" t="s">
@@ -3444,167 +3532,178 @@
       <c r="C112" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D112" s="25" t="s">
+      <c r="D112" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="113" ht="30" customHeight="1" spans="1:4">
-      <c r="A113" s="10" t="s">
-        <v>42</v>
+      <c r="A113" s="11" t="s">
+        <v>116</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D113" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="30" customHeight="1" spans="1:4">
-      <c r="A114" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="B114" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="C114" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D114" s="27" t="s">
+      <c r="A114" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="115" ht="30" customHeight="1" spans="1:4">
-      <c r="A115" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="B115" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="C115" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D115" s="29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="117" ht="14.25"/>
+      <c r="A115" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B115" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C115" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" ht="30" customHeight="1" spans="1:4">
+      <c r="A116" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" ht="30" customHeight="1" spans="1:4">
+      <c r="A117" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B117" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="118" ht="30" customHeight="1" spans="1:4">
-      <c r="A118" s="4" t="s">
+      <c r="A118" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B118" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C118" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D118" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" ht="30" customHeight="1" spans="1:4">
+      <c r="A119" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B119" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" customHeight="1" spans="1:4">
+      <c r="A120" s="24"/>
+      <c r="B120" s="24"/>
+      <c r="C120" s="24"/>
+      <c r="D120" s="24"/>
+    </row>
+    <row r="121" customHeight="1" spans="1:4">
+      <c r="A121" s="24"/>
+      <c r="B121" s="24"/>
+      <c r="C121" s="24"/>
+      <c r="D121" s="24"/>
+    </row>
+    <row r="122" ht="30" customHeight="1" spans="1:4">
+      <c r="A122" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B118" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C118" s="6"/>
-      <c r="D118" s="21"/>
-    </row>
-    <row r="119" ht="30" customHeight="1" spans="1:4">
-      <c r="A119" s="8" t="s">
+      <c r="B122" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C122" s="6"/>
+      <c r="D122" s="22"/>
+    </row>
+    <row r="123" ht="30" customHeight="1" spans="1:4">
+      <c r="A123" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B119" s="9" t="s">
+      <c r="B123" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C119" s="9" t="s">
+      <c r="C123" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D119" s="22" t="s">
+      <c r="D123" s="23" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="120" ht="30" customHeight="1" spans="1:4">
-      <c r="A120" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B120" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C120" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D120" s="25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="121" ht="30" customHeight="1" spans="1:4">
-      <c r="A121" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B121" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C121" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D121" s="25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="122" ht="30" customHeight="1" spans="1:4">
-      <c r="A122" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="B122" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="C122" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="D122" s="27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="123" ht="30" customHeight="1" spans="1:4">
-      <c r="A123" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="B123" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="C123" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D123" s="29" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="124" ht="30" customHeight="1" spans="1:4">
       <c r="A124" s="11" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D124" s="11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="125" ht="30" customHeight="1" spans="1:4">
-      <c r="A125" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B125" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C125" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D125" s="13" t="s">
+      <c r="A125" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B125" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C125" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D125" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="126" ht="30" customHeight="1" spans="1:4">
       <c r="A126" s="11" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="C126" s="11" t="s">
         <v>12</v>
@@ -3613,907 +3712,905 @@
         <v>16</v>
       </c>
     </row>
-    <row r="128" ht="14.25"/>
+    <row r="127" ht="30" customHeight="1" spans="1:4">
+      <c r="A127" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="B127" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C127" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" ht="30" customHeight="1" spans="1:4">
+      <c r="A128" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C128" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="129" ht="30" customHeight="1" spans="1:4">
-      <c r="A129" s="4" t="s">
+      <c r="A129" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B129" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C129" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" ht="30" customHeight="1" spans="1:4">
+      <c r="A130" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B130" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C130" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" ht="30" customHeight="1" spans="1:4">
+      <c r="A131" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B131" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C131" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" ht="14.25"/>
+    <row r="134" ht="30" customHeight="1" spans="1:4">
+      <c r="A134" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B129" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C129" s="6"/>
-      <c r="D129" s="21"/>
-    </row>
-    <row r="130" ht="30" customHeight="1" spans="1:4">
-      <c r="A130" s="8" t="s">
+      <c r="B134" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C134" s="6"/>
+      <c r="D134" s="22"/>
+    </row>
+    <row r="135" ht="30" customHeight="1" spans="1:4">
+      <c r="A135" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B130" s="9" t="s">
+      <c r="B135" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C130" s="9" t="s">
+      <c r="C135" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D130" s="22" t="s">
+      <c r="D135" s="23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="131" ht="30" customHeight="1" spans="1:4">
-      <c r="A131" s="10" t="s">
+    <row r="136" ht="30" customHeight="1" spans="1:4">
+      <c r="A136" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B131" s="11" t="s">
+      <c r="B136" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C136" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D136" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" ht="30" customHeight="1" spans="1:4">
+      <c r="A137" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B137" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C131" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D131" s="25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="132" ht="30" customHeight="1" spans="1:4">
-      <c r="A132" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B132" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C132" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D132" s="25" t="s">
+      <c r="C137" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D137" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="133" ht="30" customHeight="1" spans="1:4">
-      <c r="A133" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B133" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C133" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D133" s="27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="134" ht="30" customHeight="1" spans="1:4">
-      <c r="A134" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B134" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C134" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D134" s="29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="135" ht="30" customHeight="1" spans="1:4">
-      <c r="A135" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="B135" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C135" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D135" s="27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="136" ht="30" customHeight="1" spans="1:4">
-      <c r="A136" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B136" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C136" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D136" s="25" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="137" ht="30" customHeight="1" spans="1:4">
-      <c r="A137" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B137" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C137" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D137" s="27" t="s">
-        <v>16</v>
-      </c>
-    </row>
     <row r="138" ht="30" customHeight="1" spans="1:4">
-      <c r="A138" s="10" t="s">
-        <v>76</v>
+      <c r="A138" s="11" t="s">
+        <v>145</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C138" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D138" s="29" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="140" ht="14.25"/>
-    <row r="141" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A141" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C138" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D138" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" ht="30" customHeight="1" spans="1:4">
+      <c r="A139" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B139" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C139" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" ht="14.25"/>
+    <row r="142" ht="30" customHeight="1" spans="1:4">
+      <c r="A142" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B141" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C141" s="6"/>
-      <c r="D141" s="21"/>
-    </row>
-    <row r="142" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A142" s="8" t="s">
+      <c r="B142" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C142" s="6"/>
+      <c r="D142" s="22"/>
+    </row>
+    <row r="143" ht="30" customHeight="1" spans="1:4">
+      <c r="A143" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B142" s="9" t="s">
+      <c r="B143" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C142" s="9" t="s">
+      <c r="C143" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D142" s="22" t="s">
+      <c r="D143" s="23" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="143" ht="30" customHeight="1" spans="1:4">
-      <c r="A143" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B143" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="C143" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D143" s="25" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="144" ht="30" customHeight="1" spans="1:4">
       <c r="A144" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B144" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C144" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D144" s="26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145" ht="30" customHeight="1" spans="1:4">
+      <c r="A145" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B144" s="11" t="s">
+      <c r="B145" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C144" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D144" s="25" t="s">
+      <c r="C145" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D145" s="26" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="145" ht="30" customHeight="1" spans="1:4">
-      <c r="A145" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B145" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C145" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D145" s="27" t="s">
+    <row r="146" ht="30" customHeight="1" spans="1:4">
+      <c r="A146" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="B146" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="C146" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D146" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147" ht="30" customHeight="1" spans="1:4">
+      <c r="A147" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="B147" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C147" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D147" s="30" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="146" ht="30" customHeight="1" spans="1:4">
-      <c r="A146" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B146" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="C146" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D146" s="25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="147" ht="30" customHeight="1" spans="1:4">
-      <c r="A147" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B147" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C147" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D147" s="27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="148" ht="30" customHeight="1" spans="1:4">
-      <c r="A148" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B148" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C148" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D148" s="25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="149" ht="30" customHeight="1" spans="1:4">
-      <c r="A149" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B149" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C149" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D149" s="27" t="s">
-        <v>16</v>
-      </c>
-    </row>
+    <row r="149" ht="14.25"/>
     <row r="150" ht="30" customHeight="1" spans="1:4">
-      <c r="A150" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B150" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C150" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D150" s="25" t="s">
-        <v>16</v>
-      </c>
+      <c r="A150" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C150" s="6"/>
+      <c r="D150" s="22"/>
     </row>
     <row r="151" ht="30" customHeight="1" spans="1:4">
-      <c r="A151" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B151" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C151" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D151" s="25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="153" ht="14.25"/>
-    <row r="154" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A154" s="4" t="s">
+      <c r="A151" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C151" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D151" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" ht="30" customHeight="1" spans="1:4">
+      <c r="A152" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B152" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C152" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D152" s="26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" ht="30" customHeight="1" spans="1:4">
+      <c r="A153" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B153" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C153" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D153" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="154" ht="30" customHeight="1" spans="1:4">
+      <c r="A154" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="B154" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="C154" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D154" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="155" ht="30" customHeight="1" spans="1:4">
+      <c r="A155" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="B155" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C155" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D155" s="30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="156" ht="30" customHeight="1" spans="1:4">
+      <c r="A156" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B156" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C156" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D156" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="157" ht="30" customHeight="1" spans="1:4">
+      <c r="A157" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B157" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C157" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D157" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="158" ht="30" customHeight="1" spans="1:4">
+      <c r="A158" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B158" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C158" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D158" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="160" ht="14.25"/>
+    <row r="161" ht="30" customHeight="1" spans="1:4">
+      <c r="A161" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B154" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C154" s="6"/>
-      <c r="D154" s="21"/>
-    </row>
-    <row r="155" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A155" s="8" t="s">
+      <c r="B161" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C161" s="6"/>
+      <c r="D161" s="22"/>
+    </row>
+    <row r="162" ht="30" customHeight="1" spans="1:4">
+      <c r="A162" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B155" s="9" t="s">
+      <c r="B162" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C155" s="9" t="s">
+      <c r="C162" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D155" s="22" t="s">
+      <c r="D162" s="23" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="156" ht="30" customHeight="1" spans="1:4">
-      <c r="A156" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B156" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="C156" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D156" s="25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="157" ht="30" customHeight="1" spans="1:4">
-      <c r="A157" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B157" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C157" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D157" s="25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="158" ht="30" customHeight="1" spans="1:4">
-      <c r="A158" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="B158" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="C158" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D158" s="27" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="159" ht="30" customHeight="1" spans="1:4">
-      <c r="A159" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B159" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C159" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D159" s="25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="160" ht="30" customHeight="1" spans="1:4">
-      <c r="A160" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="B160" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C160" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D160" s="27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="161" ht="30" customHeight="1" spans="1:4">
-      <c r="A161" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B161" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="C161" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D161" s="25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="162" ht="30" customHeight="1" spans="1:4">
-      <c r="A162" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B162" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C162" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D162" s="27" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="163" ht="30" customHeight="1" spans="1:4">
       <c r="A163" s="10" t="s">
-        <v>139</v>
+        <v>6</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>140</v>
+        <v>59</v>
       </c>
       <c r="C163" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D163" s="25" t="s">
-        <v>16</v>
+      <c r="D163" s="26" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="164" ht="30" customHeight="1" spans="1:4">
-      <c r="A164" s="12" t="s">
+      <c r="A164" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B164" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C164" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D164" s="26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="165" ht="30" customHeight="1" spans="1:4">
+      <c r="A165" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B165" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C165" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D165" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="166" ht="30" customHeight="1" spans="1:4">
+      <c r="A166" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B164" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C164" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D164" s="27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="166" ht="14.25"/>
-    <row r="167" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A167" s="4" t="s">
+      <c r="B166" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C166" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D166" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="167" ht="30" customHeight="1" spans="1:4">
+      <c r="A167" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B167" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C167" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D167" s="28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="168" ht="30" customHeight="1" spans="1:4">
+      <c r="A168" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B168" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C168" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D168" s="26" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="169" ht="30" customHeight="1" spans="1:4">
+      <c r="A169" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B169" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C169" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D169" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="170" ht="30" customHeight="1" spans="1:4">
+      <c r="A170" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B170" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C170" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D170" s="30" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="172" ht="14.25"/>
+    <row r="173" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A173" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B167" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C167" s="6"/>
-      <c r="D167" s="21"/>
-    </row>
-    <row r="168" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A168" s="8" t="s">
+      <c r="B173" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C173" s="6"/>
+      <c r="D173" s="22"/>
+    </row>
+    <row r="174" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A174" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B168" s="9" t="s">
+      <c r="B174" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C168" s="9" t="s">
+      <c r="C174" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D168" s="22" t="s">
+      <c r="D174" s="23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="169" ht="30" customHeight="1" spans="1:4">
-      <c r="A169" s="10" t="s">
+    <row r="175" ht="30" customHeight="1" spans="1:4">
+      <c r="A175" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B169" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="C169" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D169" s="25" t="s">
+      <c r="B175" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C175" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D175" s="26" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="170" ht="30" customHeight="1" spans="1:4">
-      <c r="A170" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="B170" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="C170" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D170" s="29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="171" ht="30" customHeight="1" spans="1:4">
-      <c r="A171" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="B171" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="C171" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D171" s="27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="172" ht="30" customHeight="1" spans="1:4">
-      <c r="A172" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B172" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="C172" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D172" s="29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="173" ht="30" customHeight="1" spans="1:4">
-      <c r="A173" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="B173" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="C173" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D173" s="27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="175" ht="14.25"/>
-    <row r="176" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A176" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B176" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C176" s="6"/>
-      <c r="D176" s="21"/>
-    </row>
-    <row r="177" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A177" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B177" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C177" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D177" s="22" t="s">
-        <v>5</v>
+    <row r="176" ht="30" customHeight="1" spans="1:4">
+      <c r="A176" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B176" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C176" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D176" s="26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="177" ht="30" customHeight="1" spans="1:4">
+      <c r="A177" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B177" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C177" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D177" s="28" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="178" ht="30" customHeight="1" spans="1:4">
       <c r="A178" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B178" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C178" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D178" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="179" ht="30" customHeight="1" spans="1:4">
+      <c r="A179" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B179" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C179" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D179" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="180" ht="30" customHeight="1" spans="1:4">
+      <c r="A180" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B180" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C180" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D180" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="181" ht="30" customHeight="1" spans="1:4">
+      <c r="A181" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B181" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C181" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D181" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="182" ht="30" customHeight="1" spans="1:4">
+      <c r="A182" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B182" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C182" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D182" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="183" ht="30" customHeight="1" spans="1:4">
+      <c r="A183" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B183" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C183" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D183" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="185" ht="14.25"/>
+    <row r="186" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A186" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C186" s="6"/>
+      <c r="D186" s="22"/>
+    </row>
+    <row r="187" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A187" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B187" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C187" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D187" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" ht="30" customHeight="1" spans="1:4">
+      <c r="A188" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B178" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="C178" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D178" s="25" t="s">
+      <c r="B188" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C188" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D188" s="26" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="179" ht="30" customHeight="1" spans="1:4">
-      <c r="A179" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="B179" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="C179" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D179" s="25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="180" ht="30" customHeight="1" spans="1:4">
-      <c r="A180" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="B180" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="C180" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D180" s="27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="181" ht="30" customHeight="1" spans="1:4">
-      <c r="A181" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B181" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="C181" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D181" s="29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="182" ht="30" customHeight="1" spans="1:4">
-      <c r="A182" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="B182" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="C182" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D182" s="27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="184" ht="14.25"/>
-    <row r="185" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A185" s="4" t="s">
+    <row r="189" ht="30" customHeight="1" spans="1:4">
+      <c r="A189" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B189" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C189" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D189" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="190" ht="30" customHeight="1" spans="1:4">
+      <c r="A190" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B190" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="C190" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D190" s="28" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="191" ht="30" customHeight="1" spans="1:4">
+      <c r="A191" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B191" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C191" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D191" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="192" ht="30" customHeight="1" spans="1:4">
+      <c r="A192" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B192" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C192" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D192" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="193" ht="30" customHeight="1" spans="1:4">
+      <c r="A193" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B193" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="C193" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D193" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="194" ht="30" customHeight="1" spans="1:4">
+      <c r="A194" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B194" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C194" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D194" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="195" ht="30" customHeight="1" spans="1:4">
+      <c r="A195" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B195" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C195" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D195" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="196" ht="30" customHeight="1" spans="1:4">
+      <c r="A196" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B196" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="C196" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D196" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="198" ht="14.25"/>
+    <row r="199" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A199" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B185" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C185" s="6"/>
-      <c r="D185" s="21"/>
-    </row>
-    <row r="186" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A186" s="8" t="s">
+      <c r="B199" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C199" s="6"/>
+      <c r="D199" s="22"/>
+    </row>
+    <row r="200" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A200" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B186" s="9" t="s">
+      <c r="B200" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C186" s="9" t="s">
+      <c r="C200" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D186" s="22" t="s">
+      <c r="D200" s="23" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="187" ht="30" customHeight="1" spans="1:4">
-      <c r="A187" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B187" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="C187" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D187" s="27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="188" ht="30" customHeight="1" spans="1:4">
-      <c r="A188" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="B188" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="C188" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D188" s="32" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="189" customHeight="1" spans="1:4">
-      <c r="A189" s="33"/>
-      <c r="B189" s="33"/>
-      <c r="C189" s="33"/>
-      <c r="D189" s="33"/>
-    </row>
-    <row r="190" ht="14.25" spans="1:4">
-      <c r="A190" s="33"/>
-      <c r="B190" s="33"/>
-      <c r="C190" s="33"/>
-      <c r="D190" s="33"/>
-    </row>
-    <row r="191" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A191" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="B191" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="C191" s="35"/>
-      <c r="D191" s="36"/>
-    </row>
-    <row r="192" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A192" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B192" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C192" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D192" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="193" ht="30" customHeight="1" spans="1:4">
-      <c r="A193" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B193" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="C193" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D193" s="27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="194" ht="30" customHeight="1" spans="1:4">
-      <c r="A194" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="B194" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="C194" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D194" s="32" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="195" ht="30" customHeight="1" spans="1:4">
-      <c r="A195" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="B195" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="C195" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D195" s="27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="196" customHeight="1" spans="1:4">
-      <c r="A196" s="33"/>
-      <c r="B196" s="33"/>
-      <c r="C196" s="33"/>
-      <c r="D196" s="33"/>
-    </row>
-    <row r="197" ht="14.25" spans="1:4">
-      <c r="A197" s="33"/>
-      <c r="B197" s="33"/>
-      <c r="C197" s="33"/>
-      <c r="D197" s="33"/>
-    </row>
-    <row r="198" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A198" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="B198" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="C198" s="35"/>
-      <c r="D198" s="36"/>
-    </row>
-    <row r="199" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A199" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B199" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C199" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D199" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="200" ht="30" customHeight="1" spans="1:4">
-      <c r="A200" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B200" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="C200" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D200" s="27" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="201" ht="30" customHeight="1" spans="1:4">
       <c r="A201" s="10" t="s">
-        <v>167</v>
+        <v>6</v>
       </c>
       <c r="B201" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="C201" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D201" s="25" t="s">
-        <v>16</v>
+        <v>183</v>
+      </c>
+      <c r="C201" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D201" s="26" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="202" ht="30" customHeight="1" spans="1:4">
-      <c r="A202" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="B202" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="C202" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D202" s="27" t="s">
+      <c r="A202" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="B202" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="C202" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D202" s="30" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="203" ht="30" customHeight="1" spans="1:4">
-      <c r="A203" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="B203" s="11" t="s">
+      <c r="A203" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="C203" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D203" s="25" t="s">
-        <v>173</v>
+      <c r="B203" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="C203" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D203" s="28" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="204" ht="30" customHeight="1" spans="1:4">
-      <c r="A204" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B204" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="C204" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D204" s="27" t="s">
-        <v>175</v>
+      <c r="A204" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B204" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="C204" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D204" s="30" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="205" ht="30" customHeight="1" spans="1:4">
-      <c r="A205" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="B205" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="C205" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D205" s="25" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="206" ht="14.25" customHeight="1" spans="1:4">
-      <c r="A206" s="37"/>
-      <c r="B206" s="37"/>
-      <c r="C206" s="37"/>
-      <c r="D206" s="37"/>
-    </row>
-    <row r="207" ht="14.25" spans="1:4">
-      <c r="A207" s="33"/>
-      <c r="B207" s="33"/>
-      <c r="C207" s="33"/>
-      <c r="D207" s="33"/>
-    </row>
+      <c r="A205" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="B205" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="C205" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D205" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="207" ht="14.25"/>
     <row r="208" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A208" s="34" t="s">
+      <c r="A208" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B208" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="C208" s="35"/>
-      <c r="D208" s="36"/>
+      <c r="B208" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C208" s="6"/>
+      <c r="D208" s="22"/>
     </row>
     <row r="209" ht="35.1" customHeight="1" spans="1:4">
       <c r="A209" s="8" t="s">
@@ -4525,234 +4622,594 @@
       <c r="C209" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D209" s="22" t="s">
+      <c r="D209" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="210" ht="30" customHeight="1" spans="1:4">
-      <c r="A210" s="12" t="s">
+      <c r="A210" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B210" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="C210" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D210" s="27" t="s">
+      <c r="B210" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C210" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D210" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="211" ht="30" customHeight="1" spans="1:4">
-      <c r="A211" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B211" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="C211" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D211" s="25" t="s">
+      <c r="A211" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="B211" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="C211" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D211" s="26" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="212" ht="30" customHeight="1" spans="1:4">
-      <c r="A212" s="12" t="s">
+      <c r="A212" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="B212" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="C212" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D212" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="213" ht="30" customHeight="1" spans="1:4">
+      <c r="A213" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B213" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="C213" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D213" s="30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="214" ht="30" customHeight="1" spans="1:4">
+      <c r="A214" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="B214" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="C214" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D214" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="216" ht="14.25"/>
+    <row r="217" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A217" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C217" s="6"/>
+      <c r="D217" s="22"/>
+    </row>
+    <row r="218" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A218" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B218" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C218" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D218" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219" ht="30" customHeight="1" spans="1:4">
+      <c r="A219" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B219" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="C219" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D219" s="28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="220" ht="30" customHeight="1" spans="1:4">
+      <c r="A220" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="B220" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="C220" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D220" s="33" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="221" customHeight="1" spans="1:4">
+      <c r="A221" s="34"/>
+      <c r="B221" s="34"/>
+      <c r="C221" s="34"/>
+      <c r="D221" s="34"/>
+    </row>
+    <row r="222" ht="14.25" spans="1:4">
+      <c r="A222" s="34"/>
+      <c r="B222" s="34"/>
+      <c r="C222" s="34"/>
+      <c r="D222" s="34"/>
+    </row>
+    <row r="223" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A223" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B223" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="C223" s="36"/>
+      <c r="D223" s="37"/>
+    </row>
+    <row r="224" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A224" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B224" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C224" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D224" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="225" ht="30" customHeight="1" spans="1:4">
+      <c r="A225" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B225" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="C225" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D225" s="28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="226" ht="30" customHeight="1" spans="1:4">
+      <c r="A226" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="B226" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="C226" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D226" s="33" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="227" ht="30" customHeight="1" spans="1:4">
+      <c r="A227" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B227" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="C227" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D227" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="228" customHeight="1" spans="1:4">
+      <c r="A228" s="34"/>
+      <c r="B228" s="34"/>
+      <c r="C228" s="34"/>
+      <c r="D228" s="34"/>
+    </row>
+    <row r="229" ht="14.25" spans="1:4">
+      <c r="A229" s="34"/>
+      <c r="B229" s="34"/>
+      <c r="C229" s="34"/>
+      <c r="D229" s="34"/>
+    </row>
+    <row r="230" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A230" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B230" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="C230" s="36"/>
+      <c r="D230" s="37"/>
+    </row>
+    <row r="231" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A231" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B231" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C231" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D231" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232" ht="30" customHeight="1" spans="1:4">
+      <c r="A232" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B232" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="C232" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D232" s="28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="233" ht="30" customHeight="1" spans="1:4">
+      <c r="A233" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B233" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C233" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D233" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="234" ht="30" customHeight="1" spans="1:4">
+      <c r="A234" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="B234" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="C234" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D234" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="235" ht="30" customHeight="1" spans="1:4">
+      <c r="A235" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="B235" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C235" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D235" s="26" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="236" ht="30" customHeight="1" spans="1:4">
+      <c r="A236" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B236" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="C236" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D236" s="28" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="237" ht="30" customHeight="1" spans="1:4">
+      <c r="A237" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B237" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="C237" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D237" s="26" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="238" ht="14.25" customHeight="1" spans="1:4">
+      <c r="A238" s="38"/>
+      <c r="B238" s="38"/>
+      <c r="C238" s="38"/>
+      <c r="D238" s="38"/>
+    </row>
+    <row r="239" ht="14.25" spans="1:4">
+      <c r="A239" s="34"/>
+      <c r="B239" s="34"/>
+      <c r="C239" s="34"/>
+      <c r="D239" s="34"/>
+    </row>
+    <row r="240" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A240" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B240" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="C240" s="36"/>
+      <c r="D240" s="37"/>
+    </row>
+    <row r="241" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A241" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B241" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C241" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D241" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242" ht="30" customHeight="1" spans="1:4">
+      <c r="A242" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B242" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C242" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D242" s="28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="243" ht="30" customHeight="1" spans="1:4">
+      <c r="A243" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B243" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C243" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D243" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="244" ht="30" customHeight="1" spans="1:4">
+      <c r="A244" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B212" s="13" t="s">
+      <c r="B244" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="C244" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D244" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="245" ht="30" customHeight="1" spans="1:4">
+      <c r="A245" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B245" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="C212" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D212" s="27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="213" ht="30" customHeight="1" spans="1:4">
-      <c r="A213" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B213" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="C213" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D213" s="25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="214" ht="30" customHeight="1" spans="1:4">
-      <c r="A214" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="B214" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="C214" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D214" s="27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="215" ht="30" customHeight="1" spans="1:4">
-      <c r="A215" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="B215" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="C215" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D215" s="25" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="216" ht="30" customHeight="1" spans="1:4">
-      <c r="A216" s="12" t="s">
+      <c r="C245" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D245" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="246" ht="30" customHeight="1" spans="1:4">
+      <c r="A246" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="B246" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C246" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D246" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="247" ht="30" customHeight="1" spans="1:4">
+      <c r="A247" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B247" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="C247" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D247" s="26" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="248" ht="30" customHeight="1" spans="1:4">
+      <c r="A248" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B216" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="C216" s="13" t="s">
+      <c r="B248" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="C248" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D216" s="27" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="217" customHeight="1" spans="1:4">
-      <c r="A217" s="33"/>
-      <c r="B217" s="33"/>
-      <c r="C217" s="33"/>
-      <c r="D217" s="33"/>
-    </row>
-    <row r="218" ht="14.25" customHeight="1" spans="1:4">
-      <c r="A218" s="33"/>
-      <c r="B218" s="33"/>
-      <c r="C218" s="33"/>
-      <c r="D218" s="33"/>
-    </row>
-    <row r="219" ht="30" customHeight="1" spans="1:4">
-      <c r="A219" s="34" t="s">
+      <c r="D248" s="28" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="249" customHeight="1" spans="1:4">
+      <c r="A249" s="34"/>
+      <c r="B249" s="34"/>
+      <c r="C249" s="34"/>
+      <c r="D249" s="34"/>
+    </row>
+    <row r="250" ht="14.25" customHeight="1" spans="1:4">
+      <c r="A250" s="34"/>
+      <c r="B250" s="34"/>
+      <c r="C250" s="34"/>
+      <c r="D250" s="34"/>
+    </row>
+    <row r="251" ht="30" customHeight="1" spans="1:4">
+      <c r="A251" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="B219" s="35" t="s">
-        <v>189</v>
-      </c>
-      <c r="C219" s="35"/>
-      <c r="D219" s="36"/>
-    </row>
-    <row r="220" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A220" s="8" t="s">
+      <c r="B251" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="C251" s="36"/>
+      <c r="D251" s="37"/>
+    </row>
+    <row r="252" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A252" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B220" s="9" t="s">
+      <c r="B252" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C220" s="9" t="s">
+      <c r="C252" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D220" s="22" t="s">
+      <c r="D252" s="23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="221" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A221" s="12" t="s">
+    <row r="253" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A253" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B221" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="C221" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D221" s="27" t="s">
+      <c r="B253" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="C253" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D253" s="28" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="222" ht="30" customHeight="1" spans="1:4">
-      <c r="A222" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="B222" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="C222" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D222" s="25" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="223" ht="30" customHeight="1" spans="1:4">
-      <c r="A223" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B223" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="C223" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D223" s="27" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="224" ht="30" customHeight="1" spans="1:4">
-      <c r="A224" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="B224" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="C224" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D224" s="25" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="225" customHeight="1" spans="1:4">
-      <c r="A225" s="33"/>
-      <c r="B225" s="33"/>
-      <c r="C225" s="33"/>
-      <c r="D225" s="33"/>
+    <row r="254" ht="30" customHeight="1" spans="1:4">
+      <c r="A254" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="B254" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C254" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D254" s="26" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="255" ht="30" customHeight="1" spans="1:4">
+      <c r="A255" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="B255" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="C255" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D255" s="28" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="256" ht="30" customHeight="1" spans="1:4">
+      <c r="A256" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="B256" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="C256" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D256" s="26" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="257" customHeight="1" spans="1:4">
+      <c r="A257" s="34"/>
+      <c r="B257" s="34"/>
+      <c r="C257" s="34"/>
+      <c r="D257" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="25">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B101:D101"/>
     <mergeCell ref="B110:D110"/>
-    <mergeCell ref="B118:D118"/>
-    <mergeCell ref="B129:D129"/>
-    <mergeCell ref="B141:D141"/>
-    <mergeCell ref="B154:D154"/>
-    <mergeCell ref="B167:D167"/>
-    <mergeCell ref="B176:D176"/>
-    <mergeCell ref="B185:D185"/>
-    <mergeCell ref="B191:D191"/>
-    <mergeCell ref="B198:D198"/>
+    <mergeCell ref="B122:D122"/>
+    <mergeCell ref="B134:D134"/>
+    <mergeCell ref="B142:D142"/>
+    <mergeCell ref="B150:D150"/>
+    <mergeCell ref="B161:D161"/>
+    <mergeCell ref="B173:D173"/>
+    <mergeCell ref="B186:D186"/>
+    <mergeCell ref="B199:D199"/>
     <mergeCell ref="B208:D208"/>
-    <mergeCell ref="B219:D219"/>
+    <mergeCell ref="B217:D217"/>
+    <mergeCell ref="B223:D223"/>
+    <mergeCell ref="B230:D230"/>
+    <mergeCell ref="B240:D240"/>
+    <mergeCell ref="B251:D251"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A95" r:id="rId14" display="sponsor" tooltip="file:///D:\Dict\7.2.0.0511\resultui\dict\?keyword=sponsor"/>
-    <hyperlink ref="A97" r:id="rId15" display="principal" tooltip="file:///D:\Dict\7.2.0.0511\resultui\dict\?keyword=principal"/>
+    <hyperlink ref="A127" r:id="rId14" display="sponsor" tooltip="file:///D:\Dict\7.2.0.0511\resultui\dict\?keyword=sponsor"/>
+    <hyperlink ref="A129" r:id="rId15" display="principal" tooltip="file:///D:\Dict\7.2.0.0511\resultui\dict\?keyword=principal"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/docs/开场数据字典.xlsx
+++ b/docs/开场数据字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212">
   <si>
     <t>开场数据字典</t>
   </si>
@@ -158,19 +158,25 @@
     <t>所属单位</t>
   </si>
   <si>
+    <t>可以为空</t>
+  </si>
+  <si>
     <t>site</t>
   </si>
   <si>
     <t>单位地址</t>
   </si>
   <si>
+    <t>可以为空空、默认：0</t>
+  </si>
+  <si>
+    <t>postalcode</t>
+  </si>
+  <si>
+    <t>邮编</t>
+  </si>
+  <si>
     <t>非空、默认：0</t>
-  </si>
-  <si>
-    <t>postalcode</t>
-  </si>
-  <si>
-    <t>邮编</t>
   </si>
   <si>
     <t>telephone</t>
@@ -743,10 +749,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -791,16 +797,38 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -814,15 +842,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -852,45 +904,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -904,25 +920,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -973,7 +979,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -985,7 +1015,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -997,7 +1081,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1009,139 +1141,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1379,13 +1385,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1414,15 +1424,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1441,23 +1442,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1476,6 +1473,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1484,10 +1490,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1496,133 +1502,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2205,8 +2211,8 @@
   <sheetPr/>
   <dimension ref="A1:I228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="D227" sqref="D227"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2646,49 +2652,49 @@
         <v>12</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" ht="30" customHeight="1" spans="1:4">
       <c r="A39" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" ht="30" customHeight="1" spans="1:4">
       <c r="A40" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" ht="30" customHeight="1" spans="1:4">
       <c r="A41" s="12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B41" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="13" t="s">
         <v>53</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="43" ht="15" spans="8:8">
@@ -2699,7 +2705,7 @@
         <v>40</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="7"/>
@@ -2723,7 +2729,7 @@
         <v>6</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>8</v>
@@ -2751,7 +2757,7 @@
         <v>45</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>12</v>
@@ -2762,10 +2768,10 @@
     </row>
     <row r="49" ht="30" customHeight="1" spans="1:4">
       <c r="A49" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C49" s="13" t="s">
         <v>12</v>
@@ -2776,44 +2782,44 @@
     </row>
     <row r="50" ht="30" customHeight="1" spans="1:4">
       <c r="A50" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C50" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" ht="30" customHeight="1" spans="1:4">
       <c r="A51" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C51" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" ht="30" customHeight="1" spans="1:4">
       <c r="A52" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B52" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="11" t="s">
         <v>53</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="53" ht="30" customHeight="1" spans="1:4">
@@ -2832,16 +2838,16 @@
     </row>
     <row r="54" ht="30" customHeight="1" spans="1:4">
       <c r="A54" s="11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C54" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" customHeight="1"/>
@@ -2851,7 +2857,7 @@
         <v>40</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="20"/>
@@ -2875,7 +2881,7 @@
         <v>6</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C59" s="11" t="s">
         <v>8</v>
@@ -2900,10 +2906,10 @@
     </row>
     <row r="61" ht="30" customHeight="1" spans="1:4">
       <c r="A61" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C61" s="11" t="s">
         <v>12</v>
@@ -2914,10 +2920,10 @@
     </row>
     <row r="62" ht="30" customHeight="1" spans="1:4">
       <c r="A62" s="12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C62" s="13" t="s">
         <v>12</v>
@@ -2931,13 +2937,13 @@
         <v>28</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G63" s="13"/>
     </row>
@@ -2947,7 +2953,7 @@
         <v>40</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="20"/>
@@ -2971,7 +2977,7 @@
         <v>6</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C68" s="11" t="s">
         <v>8</v>
@@ -2982,10 +2988,10 @@
     </row>
     <row r="69" ht="30" customHeight="1" spans="1:4">
       <c r="A69" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C69" s="11" t="s">
         <v>12</v>
@@ -2999,7 +3005,7 @@
         <v>43</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C70" s="11" t="s">
         <v>12</v>
@@ -3010,10 +3016,10 @@
     </row>
     <row r="71" ht="30" customHeight="1" spans="1:4">
       <c r="A71" s="12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C71" s="13" t="s">
         <v>12</v>
@@ -3024,10 +3030,10 @@
     </row>
     <row r="72" ht="30" customHeight="1" spans="1:4">
       <c r="A72" s="11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C72" s="11" t="s">
         <v>12</v>
@@ -3038,10 +3044,10 @@
     </row>
     <row r="73" ht="30" customHeight="1" spans="1:4">
       <c r="A73" s="11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C73" s="11" t="s">
         <v>12</v>
@@ -3052,10 +3058,10 @@
     </row>
     <row r="74" ht="30" customHeight="1" spans="1:4">
       <c r="A74" s="12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C74" s="13" t="s">
         <v>8</v>
@@ -3066,10 +3072,10 @@
     </row>
     <row r="75" ht="30" customHeight="1" spans="1:4">
       <c r="A75" s="11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C75" s="11" t="s">
         <v>12</v>
@@ -3095,7 +3101,7 @@
         <v>40</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="20"/>
@@ -3119,7 +3125,7 @@
         <v>6</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C80" s="11" t="s">
         <v>8</v>
@@ -3147,7 +3153,7 @@
         <v>43</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C82" s="11" t="s">
         <v>12</v>
@@ -3158,10 +3164,10 @@
     </row>
     <row r="83" ht="30" customHeight="1" spans="1:4">
       <c r="A83" s="24" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C83" s="13" t="s">
         <v>12</v>
@@ -3172,10 +3178,10 @@
     </row>
     <row r="84" ht="30" customHeight="1" spans="1:4">
       <c r="A84" s="11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C84" s="11" t="s">
         <v>12</v>
@@ -3186,10 +3192,10 @@
     </row>
     <row r="85" ht="30" customHeight="1" spans="1:4">
       <c r="A85" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C85" s="11" t="s">
         <v>12</v>
@@ -3203,7 +3209,7 @@
         <v>37</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C86" s="13" t="s">
         <v>12</v>
@@ -3214,10 +3220,10 @@
     </row>
     <row r="87" ht="30" customHeight="1" spans="1:4">
       <c r="A87" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C87" s="11" t="s">
         <v>12</v>
@@ -3232,7 +3238,7 @@
         <v>40</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="20"/>
@@ -3256,7 +3262,7 @@
         <v>6</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C92" s="11" t="s">
         <v>8</v>
@@ -3281,10 +3287,10 @@
     </row>
     <row r="94" ht="30" customHeight="1" spans="1:4">
       <c r="A94" s="11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C94" s="14" t="s">
         <v>8</v>
@@ -3295,10 +3301,10 @@
     </row>
     <row r="95" ht="30" customHeight="1" spans="1:4">
       <c r="A95" s="12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C95" s="13" t="s">
         <v>12</v>
@@ -3313,7 +3319,7 @@
         <v>40</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C98" s="6"/>
       <c r="D98" s="20"/>
@@ -3337,7 +3343,7 @@
         <v>6</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C100" s="11" t="s">
         <v>8</v>
@@ -3362,10 +3368,10 @@
     </row>
     <row r="102" ht="30" customHeight="1" spans="1:4">
       <c r="A102" s="26" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B102" s="24" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C102" s="13" t="s">
         <v>8</v>
@@ -3376,10 +3382,10 @@
     </row>
     <row r="103" ht="30" customHeight="1" spans="1:4">
       <c r="A103" s="28" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B103" s="14" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C103" s="14" t="s">
         <v>8</v>
@@ -3394,7 +3400,7 @@
         <v>40</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C106" s="6"/>
       <c r="D106" s="20"/>
@@ -3418,7 +3424,7 @@
         <v>6</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C108" s="11" t="s">
         <v>8</v>
@@ -3443,13 +3449,13 @@
     </row>
     <row r="110" ht="30" customHeight="1" spans="1:4">
       <c r="A110" s="26" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B110" s="24" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D110" s="27" t="s">
         <v>16</v>
@@ -3457,10 +3463,10 @@
     </row>
     <row r="111" ht="30" customHeight="1" spans="1:4">
       <c r="A111" s="28" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C111" s="14" t="s">
         <v>8</v>
@@ -3471,10 +3477,10 @@
     </row>
     <row r="112" ht="30" customHeight="1" spans="1:4">
       <c r="A112" s="11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C112" s="11" t="s">
         <v>12</v>
@@ -3485,10 +3491,10 @@
     </row>
     <row r="113" ht="30" customHeight="1" spans="1:4">
       <c r="A113" s="12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C113" s="13" t="s">
         <v>8</v>
@@ -3499,10 +3505,10 @@
     </row>
     <row r="114" ht="30" customHeight="1" spans="1:4">
       <c r="A114" s="11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C114" s="11" t="s">
         <v>12</v>
@@ -3517,7 +3523,7 @@
         <v>40</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C117" s="6"/>
       <c r="D117" s="20"/>
@@ -3594,7 +3600,7 @@
     </row>
     <row r="123" ht="30" customHeight="1" spans="1:4">
       <c r="A123" s="12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B123" s="13" t="s">
         <v>21</v>
@@ -3617,7 +3623,7 @@
         <v>24</v>
       </c>
       <c r="D124" s="25" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="125" ht="30" customHeight="1" spans="1:4">
@@ -3636,16 +3642,16 @@
     </row>
     <row r="126" ht="30" customHeight="1" spans="1:4">
       <c r="A126" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C126" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D126" s="29" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="128" ht="14.25"/>
@@ -3654,7 +3660,7 @@
         <v>40</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C129" s="6"/>
       <c r="D129" s="20"/>
@@ -3678,7 +3684,7 @@
         <v>6</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C131" s="11" t="s">
         <v>8</v>
@@ -3706,7 +3712,7 @@
         <v>43</v>
       </c>
       <c r="B133" s="13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C133" s="13" t="s">
         <v>12</v>
@@ -3720,7 +3726,7 @@
         <v>37</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C134" s="11" t="s">
         <v>8</v>
@@ -3731,10 +3737,10 @@
     </row>
     <row r="135" ht="30" customHeight="1" spans="1:4">
       <c r="A135" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C135" s="13" t="s">
         <v>8</v>
@@ -3745,10 +3751,10 @@
     </row>
     <row r="136" ht="30" customHeight="1" spans="1:4">
       <c r="A136" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C136" s="11" t="s">
         <v>12</v>
@@ -3759,10 +3765,10 @@
     </row>
     <row r="137" ht="30" customHeight="1" spans="1:4">
       <c r="A137" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B137" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C137" s="13" t="s">
         <v>12</v>
@@ -3787,10 +3793,10 @@
     </row>
     <row r="139" ht="30" customHeight="1" spans="1:4">
       <c r="A139" s="12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B139" s="13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C139" s="13" t="s">
         <v>8</v>
@@ -3805,7 +3811,7 @@
         <v>40</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C142" s="6"/>
       <c r="D142" s="20"/>
@@ -3829,7 +3835,7 @@
         <v>6</v>
       </c>
       <c r="B144" s="11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C144" s="11" t="s">
         <v>8</v>
@@ -3840,10 +3846,10 @@
     </row>
     <row r="145" ht="30" customHeight="1" spans="1:4">
       <c r="A145" s="10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B145" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C145" s="11" t="s">
         <v>8</v>
@@ -3854,24 +3860,24 @@
     </row>
     <row r="146" ht="30" customHeight="1" spans="1:4">
       <c r="A146" s="26" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B146" s="24" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C146" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D146" s="27" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="147" ht="30" customHeight="1" spans="1:4">
       <c r="A147" s="10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C147" s="11" t="s">
         <v>12</v>
@@ -3882,10 +3888,10 @@
     </row>
     <row r="148" ht="30" customHeight="1" spans="1:4">
       <c r="A148" s="12" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C148" s="13" t="s">
         <v>12</v>
@@ -3896,10 +3902,10 @@
     </row>
     <row r="149" ht="30" customHeight="1" spans="1:4">
       <c r="A149" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C149" s="11" t="s">
         <v>8</v>
@@ -3910,10 +3916,10 @@
     </row>
     <row r="150" ht="30" customHeight="1" spans="1:4">
       <c r="A150" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C150" s="13" t="s">
         <v>12</v>
@@ -3924,10 +3930,10 @@
     </row>
     <row r="151" ht="30" customHeight="1" spans="1:4">
       <c r="A151" s="10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B151" s="11" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C151" s="11" t="s">
         <v>8</v>
@@ -3941,7 +3947,7 @@
         <v>37</v>
       </c>
       <c r="B152" s="13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C152" s="13" t="s">
         <v>8</v>
@@ -3956,7 +3962,7 @@
         <v>40</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C155" s="6"/>
       <c r="D155" s="20"/>
@@ -3980,7 +3986,7 @@
         <v>6</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C157" s="11" t="s">
         <v>8</v>
@@ -3991,10 +3997,10 @@
     </row>
     <row r="158" ht="30" customHeight="1" spans="1:4">
       <c r="A158" s="28" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B158" s="14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C158" s="14" t="s">
         <v>8</v>
@@ -4005,10 +4011,10 @@
     </row>
     <row r="159" ht="30" customHeight="1" spans="1:4">
       <c r="A159" s="26" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B159" s="24" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C159" s="13" t="s">
         <v>12</v>
@@ -4019,10 +4025,10 @@
     </row>
     <row r="160" ht="30" customHeight="1" spans="1:4">
       <c r="A160" s="28" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B160" s="14" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C160" s="14" t="s">
         <v>12</v>
@@ -4033,10 +4039,10 @@
     </row>
     <row r="161" ht="30" customHeight="1" spans="1:4">
       <c r="A161" s="26" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B161" s="24" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C161" s="13" t="s">
         <v>12</v>
@@ -4051,7 +4057,7 @@
         <v>40</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C164" s="6"/>
       <c r="D164" s="20"/>
@@ -4075,7 +4081,7 @@
         <v>6</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C166" s="11" t="s">
         <v>8</v>
@@ -4086,10 +4092,10 @@
     </row>
     <row r="167" ht="30" customHeight="1" spans="1:4">
       <c r="A167" s="28" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B167" s="14" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C167" s="14" t="s">
         <v>12</v>
@@ -4100,10 +4106,10 @@
     </row>
     <row r="168" ht="30" customHeight="1" spans="1:4">
       <c r="A168" s="28" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B168" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C168" s="14" t="s">
         <v>12</v>
@@ -4114,13 +4120,13 @@
     </row>
     <row r="169" ht="30" customHeight="1" spans="1:4">
       <c r="A169" s="26" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B169" s="24" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C169" s="13" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D169" s="27" t="s">
         <v>16</v>
@@ -4128,10 +4134,10 @@
     </row>
     <row r="170" ht="30" customHeight="1" spans="1:4">
       <c r="A170" s="26" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B170" s="24" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C170" s="13" t="s">
         <v>8</v>
@@ -4142,13 +4148,13 @@
     </row>
     <row r="171" ht="30" customHeight="1" spans="1:4">
       <c r="A171" s="26" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B171" s="24" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C171" s="13" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D171" s="27" t="s">
         <v>16</v>
@@ -4156,10 +4162,10 @@
     </row>
     <row r="172" ht="30" customHeight="1" spans="1:4">
       <c r="A172" s="28" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B172" s="14" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C172" s="14" t="s">
         <v>12</v>
@@ -4170,7 +4176,7 @@
     </row>
     <row r="173" ht="30" customHeight="1" spans="1:4">
       <c r="A173" s="28" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B173" s="14"/>
       <c r="C173" s="14"/>
@@ -4178,10 +4184,10 @@
     </row>
     <row r="174" ht="30" customHeight="1" spans="1:4">
       <c r="A174" s="28" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B174" s="14" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C174" s="14" t="s">
         <v>12</v>
@@ -4192,13 +4198,13 @@
     </row>
     <row r="175" ht="30" customHeight="1" spans="1:4">
       <c r="A175" s="26" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B175" s="24" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C175" s="13" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D175" s="27" t="s">
         <v>16</v>
@@ -4210,7 +4216,7 @@
         <v>40</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C178" s="6"/>
       <c r="D178" s="20"/>
@@ -4234,7 +4240,7 @@
         <v>6</v>
       </c>
       <c r="B180" s="13" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C180" s="13" t="s">
         <v>8</v>
@@ -4245,16 +4251,16 @@
     </row>
     <row r="181" ht="30" customHeight="1" spans="1:4">
       <c r="A181" s="30" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B181" s="31" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C181" s="31" t="s">
         <v>12</v>
       </c>
       <c r="D181" s="32" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="182" customHeight="1" spans="1:4">
@@ -4274,7 +4280,7 @@
         <v>40</v>
       </c>
       <c r="B184" s="35" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C184" s="35"/>
       <c r="D184" s="36"/>
@@ -4298,7 +4304,7 @@
         <v>6</v>
       </c>
       <c r="B186" s="13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C186" s="13" t="s">
         <v>8</v>
@@ -4309,24 +4315,24 @@
     </row>
     <row r="187" ht="30" customHeight="1" spans="1:4">
       <c r="A187" s="30" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B187" s="31" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C187" s="31" t="s">
         <v>12</v>
       </c>
       <c r="D187" s="32" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="188" ht="30" customHeight="1" spans="1:4">
       <c r="A188" s="12" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B188" s="13" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C188" s="13" t="s">
         <v>12</v>
@@ -4352,7 +4358,7 @@
         <v>40</v>
       </c>
       <c r="B191" s="35" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C191" s="35"/>
       <c r="D191" s="36"/>
@@ -4376,7 +4382,7 @@
         <v>6</v>
       </c>
       <c r="B193" s="13" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C193" s="13" t="s">
         <v>8</v>
@@ -4387,10 +4393,10 @@
     </row>
     <row r="194" ht="30" customHeight="1" spans="1:4">
       <c r="A194" s="10" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B194" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C194" s="10" t="s">
         <v>12</v>
@@ -4401,10 +4407,10 @@
     </row>
     <row r="195" ht="30" customHeight="1" spans="1:4">
       <c r="A195" s="12" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B195" s="13" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C195" s="13" t="s">
         <v>8</v>
@@ -4415,16 +4421,16 @@
     </row>
     <row r="196" ht="30" customHeight="1" spans="1:4">
       <c r="A196" s="10" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C196" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D196" s="25" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="197" ht="30" customHeight="1" spans="1:4">
@@ -4432,27 +4438,27 @@
         <v>28</v>
       </c>
       <c r="B197" s="13" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C197" s="13" t="s">
         <v>24</v>
       </c>
       <c r="D197" s="27" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="198" ht="30" customHeight="1" spans="1:4">
       <c r="A198" s="10" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B198" s="11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C198" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D198" s="25" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="199" ht="14.25" customHeight="1" spans="1:4">
@@ -4472,7 +4478,7 @@
         <v>40</v>
       </c>
       <c r="B201" s="35" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C201" s="35"/>
       <c r="D201" s="36"/>
@@ -4496,7 +4502,7 @@
         <v>6</v>
       </c>
       <c r="B203" s="13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C203" s="13" t="s">
         <v>8</v>
@@ -4507,10 +4513,10 @@
     </row>
     <row r="204" ht="30" customHeight="1" spans="1:4">
       <c r="A204" s="10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B204" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C204" s="11" t="s">
         <v>12</v>
@@ -4521,10 +4527,10 @@
     </row>
     <row r="205" ht="30" customHeight="1" spans="1:4">
       <c r="A205" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B205" s="13" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C205" s="13" t="s">
         <v>12</v>
@@ -4538,7 +4544,7 @@
         <v>37</v>
       </c>
       <c r="B206" s="11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C206" s="11" t="s">
         <v>8</v>
@@ -4549,10 +4555,10 @@
     </row>
     <row r="207" ht="30" customHeight="1" spans="1:4">
       <c r="A207" s="12" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B207" s="13" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C207" s="13" t="s">
         <v>12</v>
@@ -4563,16 +4569,16 @@
     </row>
     <row r="208" ht="30" customHeight="1" spans="1:4">
       <c r="A208" s="10" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B208" s="11" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C208" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D208" s="25" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="209" ht="30" customHeight="1" spans="1:4">
@@ -4580,13 +4586,13 @@
         <v>28</v>
       </c>
       <c r="B209" s="13" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C209" s="13" t="s">
         <v>24</v>
       </c>
       <c r="D209" s="27" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="210" customHeight="1" spans="1:4">
@@ -4606,7 +4612,7 @@
         <v>40</v>
       </c>
       <c r="B212" s="35" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C212" s="35"/>
       <c r="D212" s="36"/>
@@ -4630,7 +4636,7 @@
         <v>6</v>
       </c>
       <c r="B214" s="13" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C214" s="13" t="s">
         <v>8</v>
@@ -4641,44 +4647,44 @@
     </row>
     <row r="215" ht="30" customHeight="1" spans="1:4">
       <c r="A215" s="10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B215" s="11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C215" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D215" s="25" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="216" ht="30" customHeight="1" spans="1:4">
       <c r="A216" s="12" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B216" s="13" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C216" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D216" s="27" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="217" ht="30" customHeight="1" spans="1:4">
       <c r="A217" s="10" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B217" s="11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C217" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D217" s="25" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="218" customHeight="1" spans="1:4">
@@ -4693,7 +4699,7 @@
         <v>40</v>
       </c>
       <c r="B221" s="35" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C221" s="35"/>
       <c r="D221" s="36"/>
@@ -4728,38 +4734,38 @@
     </row>
     <row r="224" ht="30" customHeight="1" spans="1:4">
       <c r="A224" s="10" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B224" s="11" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C224" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D224" s="25" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="225" ht="30" customHeight="1" spans="1:4">
       <c r="A225" s="12" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B225" s="13" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C225" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D225" s="27" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="226" ht="30" customHeight="1" spans="1:4">
       <c r="A226" s="12" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B226" s="13" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C226" s="13" t="s">
         <v>12</v>
@@ -4770,13 +4776,13 @@
     </row>
     <row r="227" ht="30" customHeight="1" spans="1:4">
       <c r="A227" s="12" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B227" s="13" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C227" s="13" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D227" s="27" t="s">
         <v>16</v>
@@ -4784,16 +4790,16 @@
     </row>
     <row r="228" ht="30" customHeight="1" spans="1:4">
       <c r="A228" s="10" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B228" s="11" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C228" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D228" s="25" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/docs/开场数据字典.xlsx
+++ b/docs/开场数据字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="9210" windowHeight="6555"/>
+    <workbookView windowWidth="20385" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -639,7 +639,7 @@
     <t>电话</t>
   </si>
   <si>
-    <t>加盟商轮播图表 (slideshow)</t>
+    <t>加盟商轮播图表 (merImg)</t>
   </si>
   <si>
     <t>轮播图ID</t>
@@ -663,28 +663,28 @@
     </r>
   </si>
   <si>
+    <t>图片</t>
+  </si>
+  <si>
+    <t>广告表 (ads)</t>
+  </si>
+  <si>
+    <t>广告ID</t>
+  </si>
+  <si>
     <t>标题</t>
   </si>
   <si>
-    <t>图片</t>
+    <t>content</t>
+  </si>
+  <si>
+    <t>内容</t>
   </si>
   <si>
     <t>url</t>
   </si>
   <si>
     <t>链接地址</t>
-  </si>
-  <si>
-    <t>广告表 (ads)</t>
-  </si>
-  <si>
-    <t>广告ID</t>
-  </si>
-  <si>
-    <t>content</t>
-  </si>
-  <si>
-    <t>内容</t>
   </si>
   <si>
     <t>场地属性值表 (goods_values)</t>
@@ -825,9 +825,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -873,14 +873,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -902,22 +934,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -931,11 +962,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -955,36 +993,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -994,18 +1002,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1054,13 +1054,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1078,25 +1126,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1108,31 +1138,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1150,79 +1198,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1473,11 +1473,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1506,17 +1512,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1545,28 +1556,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1578,10 +1578,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1590,133 +1590,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1989,7 +1989,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="表2_345689101112" displayName="表2_345689101112" ref="A209:D211" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="表2_345689101112" displayName="表2_345689101112" ref="A207:D209" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" name="字段名"/>
     <tableColumn id="2" name="说明"/>
@@ -2307,10 +2307,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I257"/>
+  <dimension ref="A1:I255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="B199" sqref="B199:D199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4547,7 +4547,7 @@
     </row>
     <row r="202" ht="30" customHeight="1" spans="1:4">
       <c r="A202" s="29" t="s">
-        <v>150</v>
+        <v>42</v>
       </c>
       <c r="B202" s="14" t="s">
         <v>184</v>
@@ -4560,89 +4560,88 @@
       </c>
     </row>
     <row r="203" ht="30" customHeight="1" spans="1:4">
-      <c r="A203" s="27" t="s">
+      <c r="A203" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B203" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="C203" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D203" s="30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="206" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A206" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C206" s="6"/>
+      <c r="D206" s="22"/>
+    </row>
+    <row r="207" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A207" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B207" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C207" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D207" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" ht="30" customHeight="1" spans="1:4">
+      <c r="A208" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B208" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C208" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D208" s="26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="209" ht="30" customHeight="1" spans="1:4">
+      <c r="A209" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="B203" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="C203" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D203" s="28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="204" ht="30" customHeight="1" spans="1:4">
-      <c r="A204" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="B204" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="C204" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D204" s="30" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="205" ht="30" customHeight="1" spans="1:4">
-      <c r="A205" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="B205" s="25" t="s">
+      <c r="B209" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="C205" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D205" s="28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="207" ht="14.25"/>
-    <row r="208" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A208" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B208" s="5" t="s">
+      <c r="C209" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D209" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="210" ht="30" customHeight="1" spans="1:4">
+      <c r="A210" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="C208" s="6"/>
-      <c r="D208" s="22"/>
-    </row>
-    <row r="209" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A209" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B209" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C209" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D209" s="23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="210" ht="30" customHeight="1" spans="1:4">
-      <c r="A210" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B210" s="11" t="s">
+      <c r="B210" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="C210" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D210" s="26" t="s">
-        <v>9</v>
+      <c r="C210" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D210" s="28" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="211" ht="30" customHeight="1" spans="1:4">
       <c r="A211" s="29" t="s">
-        <v>172</v>
+        <v>50</v>
       </c>
       <c r="B211" s="14" t="s">
         <v>185</v>
@@ -4650,7 +4649,7 @@
       <c r="C211" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D211" s="26" t="s">
+      <c r="D211" s="30" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4668,344 +4667,344 @@
         <v>16</v>
       </c>
     </row>
-    <row r="213" ht="30" customHeight="1" spans="1:4">
-      <c r="A213" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="B213" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="C213" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D213" s="30" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="214" ht="30" customHeight="1" spans="1:4">
-      <c r="A214" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="B214" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="C214" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D214" s="28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="216" ht="14.25"/>
-    <row r="217" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A217" s="4" t="s">
+    <row r="214" ht="14.25"/>
+    <row r="215" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A215" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B217" s="5" t="s">
+      <c r="B215" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C217" s="6"/>
-      <c r="D217" s="22"/>
-    </row>
-    <row r="218" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A218" s="8" t="s">
+      <c r="C215" s="6"/>
+      <c r="D215" s="22"/>
+    </row>
+    <row r="216" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A216" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B218" s="9" t="s">
+      <c r="B216" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C218" s="9" t="s">
+      <c r="C216" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D218" s="23" t="s">
+      <c r="D216" s="23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="219" ht="30" customHeight="1" spans="1:4">
-      <c r="A219" s="12" t="s">
+    <row r="217" ht="30" customHeight="1" spans="1:4">
+      <c r="A217" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B219" s="13" t="s">
+      <c r="B217" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="C219" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D219" s="28" t="s">
+      <c r="C217" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D217" s="28" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="220" ht="30" customHeight="1" spans="1:4">
-      <c r="A220" s="31" t="s">
+    <row r="218" ht="30" customHeight="1" spans="1:4">
+      <c r="A218" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="B220" s="32" t="s">
+      <c r="B218" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="C220" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="D220" s="33" t="s">
+      <c r="C218" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D218" s="33" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="221" customHeight="1" spans="1:4">
-      <c r="A221" s="34"/>
-      <c r="B221" s="34"/>
-      <c r="C221" s="34"/>
-      <c r="D221" s="34"/>
-    </row>
-    <row r="222" ht="14.25" spans="1:4">
-      <c r="A222" s="34"/>
-      <c r="B222" s="34"/>
-      <c r="C222" s="34"/>
-      <c r="D222" s="34"/>
-    </row>
-    <row r="223" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A223" s="35" t="s">
+    <row r="219" customHeight="1" spans="1:4">
+      <c r="A219" s="34"/>
+      <c r="B219" s="34"/>
+      <c r="C219" s="34"/>
+      <c r="D219" s="34"/>
+    </row>
+    <row r="220" ht="14.25" spans="1:4">
+      <c r="A220" s="34"/>
+      <c r="B220" s="34"/>
+      <c r="C220" s="34"/>
+      <c r="D220" s="34"/>
+    </row>
+    <row r="221" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A221" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="B223" s="36" t="s">
+      <c r="B221" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="C223" s="36"/>
-      <c r="D223" s="37"/>
-    </row>
-    <row r="224" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A224" s="8" t="s">
+      <c r="C221" s="36"/>
+      <c r="D221" s="37"/>
+    </row>
+    <row r="222" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A222" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B224" s="9" t="s">
+      <c r="B222" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C224" s="9" t="s">
+      <c r="C222" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D224" s="23" t="s">
+      <c r="D222" s="23" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="223" ht="30" customHeight="1" spans="1:4">
+      <c r="A223" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B223" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="C223" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D223" s="28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="224" ht="30" customHeight="1" spans="1:4">
+      <c r="A224" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="B224" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="C224" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D224" s="33" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="225" ht="30" customHeight="1" spans="1:4">
       <c r="A225" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B225" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="C225" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D225" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="226" customHeight="1" spans="1:4">
+      <c r="A226" s="34"/>
+      <c r="B226" s="34"/>
+      <c r="C226" s="34"/>
+      <c r="D226" s="34"/>
+    </row>
+    <row r="227" ht="14.25" spans="1:4">
+      <c r="A227" s="34"/>
+      <c r="B227" s="34"/>
+      <c r="C227" s="34"/>
+      <c r="D227" s="34"/>
+    </row>
+    <row r="228" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A228" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B228" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="C228" s="36"/>
+      <c r="D228" s="37"/>
+    </row>
+    <row r="229" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A229" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B229" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C229" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D229" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="230" ht="30" customHeight="1" spans="1:4">
+      <c r="A230" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B225" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="C225" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D225" s="28" t="s">
+      <c r="B230" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="C230" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D230" s="28" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="226" ht="30" customHeight="1" spans="1:4">
-      <c r="A226" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="B226" s="32" t="s">
-        <v>201</v>
-      </c>
-      <c r="C226" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="D226" s="33" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="227" ht="30" customHeight="1" spans="1:4">
-      <c r="A227" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="B227" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="C227" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D227" s="28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="228" customHeight="1" spans="1:4">
-      <c r="A228" s="34"/>
-      <c r="B228" s="34"/>
-      <c r="C228" s="34"/>
-      <c r="D228" s="34"/>
-    </row>
-    <row r="229" ht="14.25" spans="1:4">
-      <c r="A229" s="34"/>
-      <c r="B229" s="34"/>
-      <c r="C229" s="34"/>
-      <c r="D229" s="34"/>
-    </row>
-    <row r="230" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A230" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="B230" s="36" t="s">
-        <v>205</v>
-      </c>
-      <c r="C230" s="36"/>
-      <c r="D230" s="37"/>
-    </row>
-    <row r="231" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A231" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B231" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C231" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D231" s="23" t="s">
-        <v>5</v>
+    <row r="231" ht="30" customHeight="1" spans="1:4">
+      <c r="A231" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B231" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C231" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D231" s="26" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="232" ht="30" customHeight="1" spans="1:4">
       <c r="A232" s="12" t="s">
-        <v>6</v>
+        <v>209</v>
       </c>
       <c r="B232" s="13" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C232" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D232" s="28" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="233" ht="30" customHeight="1" spans="1:4">
       <c r="A233" s="10" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B233" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="C233" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C233" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D233" s="26" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
     </row>
     <row r="234" ht="30" customHeight="1" spans="1:4">
       <c r="A234" s="12" t="s">
-        <v>209</v>
+        <v>28</v>
       </c>
       <c r="B234" s="13" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C234" s="13" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D234" s="28" t="s">
-        <v>16</v>
+        <v>215</v>
       </c>
     </row>
     <row r="235" ht="30" customHeight="1" spans="1:4">
       <c r="A235" s="10" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B235" s="11" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C235" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D235" s="26" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="236" ht="30" customHeight="1" spans="1:4">
-      <c r="A236" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B236" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="C236" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D236" s="28" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="237" ht="30" customHeight="1" spans="1:4">
-      <c r="A237" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="B237" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="C237" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D237" s="26" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="238" ht="14.25" customHeight="1" spans="1:4">
-      <c r="A238" s="38"/>
-      <c r="B238" s="38"/>
-      <c r="C238" s="38"/>
-      <c r="D238" s="38"/>
-    </row>
-    <row r="239" ht="14.25" spans="1:4">
-      <c r="A239" s="34"/>
-      <c r="B239" s="34"/>
-      <c r="C239" s="34"/>
-      <c r="D239" s="34"/>
-    </row>
-    <row r="240" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A240" s="35" t="s">
+    <row r="236" ht="14.25" customHeight="1" spans="1:4">
+      <c r="A236" s="38"/>
+      <c r="B236" s="38"/>
+      <c r="C236" s="38"/>
+      <c r="D236" s="38"/>
+    </row>
+    <row r="237" ht="14.25" spans="1:4">
+      <c r="A237" s="34"/>
+      <c r="B237" s="34"/>
+      <c r="C237" s="34"/>
+      <c r="D237" s="34"/>
+    </row>
+    <row r="238" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A238" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="B240" s="36" t="s">
+      <c r="B238" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="C240" s="36"/>
-      <c r="D240" s="37"/>
-    </row>
-    <row r="241" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A241" s="8" t="s">
+      <c r="C238" s="36"/>
+      <c r="D238" s="37"/>
+    </row>
+    <row r="239" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A239" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B241" s="9" t="s">
+      <c r="B239" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C241" s="9" t="s">
+      <c r="C239" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D241" s="23" t="s">
+      <c r="D239" s="23" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="240" ht="30" customHeight="1" spans="1:4">
+      <c r="A240" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B240" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C240" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D240" s="28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="241" ht="30" customHeight="1" spans="1:4">
+      <c r="A241" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B241" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C241" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D241" s="26" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="242" ht="30" customHeight="1" spans="1:4">
       <c r="A242" s="12" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="B242" s="13" t="s">
-        <v>146</v>
+        <v>221</v>
       </c>
       <c r="C242" s="13" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D242" s="28" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="243" ht="30" customHeight="1" spans="1:4">
       <c r="A243" s="10" t="s">
-        <v>172</v>
+        <v>37</v>
       </c>
       <c r="B243" s="11" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="C243" s="11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D243" s="26" t="s">
         <v>16</v>
@@ -5013,10 +5012,10 @@
     </row>
     <row r="244" ht="30" customHeight="1" spans="1:4">
       <c r="A244" s="12" t="s">
-        <v>64</v>
+        <v>222</v>
       </c>
       <c r="B244" s="13" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C244" s="13" t="s">
         <v>12</v>
@@ -5027,116 +5026,116 @@
     </row>
     <row r="245" ht="30" customHeight="1" spans="1:4">
       <c r="A245" s="10" t="s">
-        <v>37</v>
+        <v>224</v>
       </c>
       <c r="B245" s="11" t="s">
-        <v>181</v>
+        <v>225</v>
       </c>
       <c r="C245" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D245" s="26" t="s">
-        <v>16</v>
+        <v>226</v>
       </c>
     </row>
     <row r="246" ht="30" customHeight="1" spans="1:4">
       <c r="A246" s="12" t="s">
-        <v>222</v>
+        <v>28</v>
       </c>
       <c r="B246" s="13" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C246" s="13" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D246" s="28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="247" ht="30" customHeight="1" spans="1:4">
-      <c r="A247" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="B247" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="C247" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D247" s="26" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="247" customHeight="1" spans="1:4">
+      <c r="A247" s="34"/>
+      <c r="B247" s="34"/>
+      <c r="C247" s="34"/>
+      <c r="D247" s="34"/>
+    </row>
+    <row r="248" ht="14.25" customHeight="1" spans="1:4">
+      <c r="A248" s="34"/>
+      <c r="B248" s="34"/>
+      <c r="C248" s="34"/>
+      <c r="D248" s="34"/>
+    </row>
+    <row r="249" ht="30" customHeight="1" spans="1:4">
+      <c r="A249" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B249" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="C249" s="36"/>
+      <c r="D249" s="37"/>
+    </row>
+    <row r="250" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A250" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B250" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C250" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D250" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="251" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A251" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B251" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="C251" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D251" s="28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="252" ht="30" customHeight="1" spans="1:4">
+      <c r="A252" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="B252" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C252" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D252" s="26" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="248" ht="30" customHeight="1" spans="1:4">
-      <c r="A248" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B248" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="C248" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D248" s="28" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="249" customHeight="1" spans="1:4">
-      <c r="A249" s="34"/>
-      <c r="B249" s="34"/>
-      <c r="C249" s="34"/>
-      <c r="D249" s="34"/>
-    </row>
-    <row r="250" ht="14.25" customHeight="1" spans="1:4">
-      <c r="A250" s="34"/>
-      <c r="B250" s="34"/>
-      <c r="C250" s="34"/>
-      <c r="D250" s="34"/>
-    </row>
-    <row r="251" ht="30" customHeight="1" spans="1:4">
-      <c r="A251" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="B251" s="36" t="s">
-        <v>229</v>
-      </c>
-      <c r="C251" s="36"/>
-      <c r="D251" s="37"/>
-    </row>
-    <row r="252" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A252" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B252" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C252" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D252" s="23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="253" ht="35.1" customHeight="1" spans="1:4">
+    <row r="253" ht="30" customHeight="1" spans="1:4">
       <c r="A253" s="12" t="s">
-        <v>6</v>
+        <v>233</v>
       </c>
       <c r="B253" s="13" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C253" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D253" s="28" t="s">
-        <v>9</v>
+        <v>226</v>
       </c>
     </row>
     <row r="254" ht="30" customHeight="1" spans="1:4">
       <c r="A254" s="10" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B254" s="11" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C254" s="11" t="s">
         <v>8</v>
@@ -5145,39 +5144,11 @@
         <v>226</v>
       </c>
     </row>
-    <row r="255" ht="30" customHeight="1" spans="1:4">
-      <c r="A255" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="B255" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="C255" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D255" s="28" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="256" ht="30" customHeight="1" spans="1:4">
-      <c r="A256" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="B256" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="C256" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D256" s="26" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="257" customHeight="1" spans="1:4">
-      <c r="A257" s="34"/>
-      <c r="B257" s="34"/>
-      <c r="C257" s="34"/>
-      <c r="D257" s="34"/>
+    <row r="255" customHeight="1" spans="1:4">
+      <c r="A255" s="34"/>
+      <c r="B255" s="34"/>
+      <c r="C255" s="34"/>
+      <c r="D255" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -5200,12 +5171,12 @@
     <mergeCell ref="B173:D173"/>
     <mergeCell ref="B186:D186"/>
     <mergeCell ref="B199:D199"/>
-    <mergeCell ref="B208:D208"/>
-    <mergeCell ref="B217:D217"/>
-    <mergeCell ref="B223:D223"/>
-    <mergeCell ref="B230:D230"/>
-    <mergeCell ref="B240:D240"/>
-    <mergeCell ref="B251:D251"/>
+    <mergeCell ref="B206:D206"/>
+    <mergeCell ref="B215:D215"/>
+    <mergeCell ref="B221:D221"/>
+    <mergeCell ref="B228:D228"/>
+    <mergeCell ref="B238:D238"/>
+    <mergeCell ref="B249:D249"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A127" r:id="rId14" display="sponsor" tooltip="file:///D:\Dict\7.2.0.0511\resultui\dict\?keyword=sponsor"/>
